--- a/Excel/2.1.1 CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/2.1.1 CustomerDataCompletion-Personal - Customer.xlsx
@@ -1,48 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UFNEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="644" activeTab="2"/>
+    <workbookView activeTab="5" firstSheet="1" tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1.CustomerDetail" sheetId="1" r:id="rId1"/>
-    <sheet name="2.AddressInformation" sheetId="2" r:id="rId2"/>
-    <sheet name="3.JobData" sheetId="3" r:id="rId3"/>
-    <sheet name="4.EmergencyContact" sheetId="4" r:id="rId4"/>
-    <sheet name="5.FinancialData" sheetId="5" r:id="rId5"/>
-    <sheet name="6.CustomerAsset" sheetId="6" r:id="rId6"/>
-    <sheet name="7.OtherAttribute" sheetId="7" r:id="rId7"/>
-    <sheet name="Master" sheetId="8" r:id="rId8"/>
+    <sheet name="1.CustomerDetail" r:id="rId1" sheetId="1"/>
+    <sheet name="2.AddressInformation" r:id="rId2" sheetId="2"/>
+    <sheet name="3.JobData" r:id="rId3" sheetId="3"/>
+    <sheet name="4.EmergencyContact" r:id="rId4" sheetId="4"/>
+    <sheet name="5.FinancialData" r:id="rId5" sheetId="5"/>
+    <sheet name="6.CustomerAsset" r:id="rId6" sheetId="6"/>
+    <sheet name="7.OtherAttribute" r:id="rId7" sheetId="7"/>
+    <sheet name="Master" r:id="rId8" sheetId="8"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="7" hidden="1">Master!$A$1:$B$95</definedName>
-    <definedName name="ExternalData_10" localSheetId="7" hidden="1">Master!$AB$1:$AC$16</definedName>
-    <definedName name="ExternalData_11" localSheetId="7" hidden="1">Master!$AE$1:$AF$492</definedName>
-    <definedName name="ExternalData_12" localSheetId="7" hidden="1">Master!$AH$1:$AI$10</definedName>
-    <definedName name="ExternalData_13" localSheetId="7" hidden="1">Master!$AK$1:$AL$3</definedName>
-    <definedName name="ExternalData_14" localSheetId="7" hidden="1">Master!$AN$1:$AO$9</definedName>
-    <definedName name="ExternalData_15" localSheetId="7" hidden="1">Master!$AQ$1:$AR$2</definedName>
-    <definedName name="ExternalData_16" localSheetId="7" hidden="1">Master!$AT$1:$AU$8</definedName>
-    <definedName name="ExternalData_17" localSheetId="7" hidden="1">Master!$AW$1:$AX$263</definedName>
-    <definedName name="ExternalData_18" localSheetId="7" hidden="1">Master!$BA$1:$BB$242</definedName>
-    <definedName name="ExternalData_19" localSheetId="7" hidden="1">Master!$BE$1:$BE$10</definedName>
-    <definedName name="ExternalData_2" localSheetId="7" hidden="1">Master!$E$1:$E$30</definedName>
-    <definedName name="ExternalData_20" localSheetId="7" hidden="1">Master!$BG$1:$BG$15</definedName>
-    <definedName name="ExternalData_21" localSheetId="7" hidden="1">Master!$BI$1:$BI$3</definedName>
-    <definedName name="ExternalData_3" localSheetId="7" hidden="1">Master!$H$1:$H$14</definedName>
-    <definedName name="ExternalData_4" localSheetId="7" hidden="1">Master!$J$1:$K$147</definedName>
-    <definedName name="ExternalData_5" localSheetId="7" hidden="1">Master!$M$1:$N$315</definedName>
-    <definedName name="ExternalData_6" localSheetId="7" hidden="1">Master!$P$1:$Q$6</definedName>
-    <definedName name="ExternalData_7" localSheetId="7" hidden="1">Master!$S$1:$T$175</definedName>
-    <definedName name="ExternalData_8" localSheetId="7" hidden="1">Master!$V$1:$W$14</definedName>
-    <definedName name="ExternalData_9" localSheetId="7" hidden="1">Master!$Y$1:$Z$193</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_1">Master!$A$1:$B$95</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_10">Master!$AB$1:$AC$16</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_11">Master!$AE$1:$AF$492</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_12">Master!$AH$1:$AI$10</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_13">Master!$AK$1:$AL$3</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_14">Master!$AN$1:$AO$9</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_15">Master!$AQ$1:$AR$2</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_16">Master!$AT$1:$AU$8</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_17">Master!$AW$1:$AX$263</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_18">Master!$BA$1:$BB$242</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_19">Master!$BE$1:$BE$10</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_2">Master!$E$1:$E$30</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_20">Master!$BG$1:$BG$15</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_21">Master!$BI$1:$BI$3</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_3">Master!$H$1:$H$14</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_4">Master!$J$1:$K$147</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_5">Master!$M$1:$N$315</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_6">Master!$P$1:$Q$6</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_7">Master!$S$1:$T$175</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_8">Master!$V$1:$W$14</definedName>
+    <definedName hidden="1" localSheetId="7" name="ExternalData_9">Master!$Y$1:$Z$193</definedName>
     <definedName name="ListAfWiMult">Master!$AB$2:INDEX(Master!$AB:$AB,SUMPRODUCT(--(Master!$AB:$AB&lt;&gt;"")))</definedName>
     <definedName name="ListAuthorityAML">Master!$AN$2:INDEX(Master!$AN:$AN,SUMPRODUCT(--(Master!$AN:$AN&lt;&gt;"")))</definedName>
     <definedName name="ListBank">Master!$J$2:INDEX(Master!$J:$J,SUMPRODUCT(--(Master!$J:$J&lt;&gt;"")))</definedName>
@@ -65,7 +65,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -78,7 +78,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A26" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A29" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A24" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A24" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A77" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A77" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A104" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A104" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A17" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
     <author>Jeremy Andreas</author>
   </authors>
   <commentList>
-    <comment ref="A37" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A37" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A40" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A40" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4638" uniqueCount="4215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="4223">
   <si>
     <t>Full Name</t>
   </si>
@@ -13052,6 +13052,30 @@
   </si>
   <si>
     <t>Customer Model</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Button Save Tidak Berfungsi</t>
+  </si>
+  <si>
+    <t>Add Asset</t>
+  </si>
+  <si>
+    <t>Motor;Mobil</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>100000;100000</t>
+  </si>
+  <si>
+    <t>2;2</t>
   </si>
 </sst>
 </file>
@@ -13103,7 +13127,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13143,6 +13167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD20000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13237,101 +13267,103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="61">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="3" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="164" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="78">
     <dxf>
@@ -13384,7 +13416,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13395,7 +13427,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13406,7 +13438,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13425,7 +13457,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13434,7 +13466,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13459,7 +13491,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13468,7 +13500,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13499,17 +13531,17 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="top" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13534,24 +13566,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13560,7 +13592,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -13569,10 +13601,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13581,7 +13613,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13606,7 +13638,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13615,7 +13647,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13640,7 +13672,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13649,7 +13681,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13674,24 +13706,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13700,7 +13732,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13709,27 +13741,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13738,7 +13770,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13747,27 +13779,27 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13776,20 +13808,20 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13798,7 +13830,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13815,7 +13847,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13824,7 +13856,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13833,7 +13865,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13850,7 +13882,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13859,7 +13891,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13868,7 +13900,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13885,7 +13917,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13894,7 +13926,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13903,7 +13935,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13928,7 +13960,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13945,7 +13977,7 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13962,24 +13994,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt formatCode="General" numFmtId="0"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13988,7 +14020,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
       <fill>
@@ -13997,10 +14029,10 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -14239,228 +14271,228 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Query_Job_Profession" displayName="Query_Job_Profession" ref="A1:B95" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="76" displayName="Query_Job_Profession" headerRowDxfId="77" id="1" insertRowShift="1" name="Query_Job_Profession" ref="A1:B95" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B95"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="JOB PROFESSION NAME" queryTableFieldId="1" dataDxfId="75"/>
-    <tableColumn id="2" uniqueName="2" name="JOB POSITION CODE" queryTableFieldId="2" dataDxfId="74"/>
+    <tableColumn dataDxfId="75" id="1" name="JOB PROFESSION NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="74" id="2" name="JOB POSITION CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Query_Affiliate_with_Multifinance" displayName="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="44" displayName="Query_Affiliate_with_Multifinance" headerRowDxfId="45" id="10" insertRowShift="1" name="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AC16"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" dataDxfId="43"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="42"/>
+    <tableColumn dataDxfId="43" id="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="42" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Query_Department_AML" displayName="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="40" displayName="Query_Department_AML" headerRowDxfId="41" id="11" insertRowShift="1" name="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AE1:AF492"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEPARTMENT AML" queryTableFieldId="1" dataDxfId="39"/>
-    <tableColumn id="2" uniqueName="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" dataDxfId="38"/>
+    <tableColumn dataDxfId="39" id="1" name="DEPARTMENT AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="38" id="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Query_csp_usl_source_aml" displayName="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="36" displayName="Query_csp_usl_source_aml" headerRowDxfId="37" id="12" insertRowShift="1" name="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AI10"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" dataDxfId="35"/>
-    <tableColumn id="2" uniqueName="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" dataDxfId="34"/>
+    <tableColumn dataDxfId="35" id="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="34" id="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Query_payment_type_aml" displayName="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="32" displayName="Query_payment_type_aml" headerRowDxfId="33" id="13" insertRowShift="1" name="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AK1:AL3"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="PAYMENT TYPE AML" queryTableFieldId="1" dataDxfId="31"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="30"/>
+    <tableColumn dataDxfId="31" id="1" name="PAYMENT TYPE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="30" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Query_authority_aml" displayName="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="28" displayName="Query_authority_aml" headerRowDxfId="29" id="14" insertRowShift="1" name="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AO9"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="AUTHORITY AML" queryTableFieldId="1" dataDxfId="27"/>
-    <tableColumn id="2" uniqueName="2" name="AUTHORITY AML2" queryTableFieldId="2" dataDxfId="26"/>
+    <tableColumn dataDxfId="27" id="1" name="AUTHORITY AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="26" id="2" name="AUTHORITY AML2" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Query_Business_Source" displayName="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="24" displayName="Query_Business_Source" headerRowDxfId="25" id="15" insertRowShift="1" name="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AQ1:AR2"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" dataDxfId="23"/>
-    <tableColumn id="2" uniqueName="2" name="CODE" queryTableFieldId="2" dataDxfId="22"/>
+    <tableColumn dataDxfId="23" id="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="22" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="query_building" displayName="query_building" ref="AT1:AU8" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="20" displayName="query_building" headerRowDxfId="21" id="16" insertRowShift="1" name="query_building" ref="AT1:AU8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AT1:AU8"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BUILDING" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" uniqueName="2" name="BUILDING CODE" queryTableFieldId="2" dataDxfId="18"/>
+    <tableColumn dataDxfId="19" id="1" name="BUILDING" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="18" id="2" name="BUILDING CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Query_Industry_Type" displayName="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="16" displayName="Query_Industry_Type" headerRowDxfId="17" id="17" insertRowShift="1" name="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AW1:AX263"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="2" uniqueName="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn dataDxfId="15" id="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="14" id="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Query_Country" displayName="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Country" headerRowDxfId="13" id="18" name="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BA1:BB242"/>
   <tableColumns count="2">
-    <tableColumn id="5" uniqueName="5" name="COUNTRY NAME" queryTableFieldId="1"/>
-    <tableColumn id="6" uniqueName="6" name="COUNTRY CODE" queryTableFieldId="2"/>
+    <tableColumn id="5" name="COUNTRY NAME" queryTableFieldId="1" uniqueName="5"/>
+    <tableColumn id="6" name="COUNTRY CODE" queryTableFieldId="2" uniqueName="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Query_Copy_Address_From" displayName="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Copy_Address_From" headerRowDxfId="12" id="19" name="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BE1:BE10"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="Copy Address" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn dataDxfId="11" id="3" name="Copy Address" queryTableFieldId="1" uniqueName="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Query_Job_Position" displayName="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0" headerRowDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Job_Position" headerRowDxfId="73" id="2" name="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:E30"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="JOB POSITION NAME" queryTableFieldId="1" dataDxfId="72"/>
+    <tableColumn dataDxfId="72" id="1" name="JOB POSITION NAME" queryTableFieldId="1" uniqueName="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="_r3db_server_ad_ins_com\r3__FOUNDATION" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="BG1:BG15" tableType="queryTable" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" headerRowDxfId="10" id="20" name="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="BG1:BG15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BG1:BG15"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="ID TYPE" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn dataDxfId="9" id="3" name="ID TYPE" queryTableFieldId="1" uniqueName="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="BI1:BI3" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" headerRowDxfId="8" id="21" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="BI1:BI3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BI1:BI3"/>
   <tableColumns count="1">
-    <tableColumn id="3" uniqueName="3" name="GENDER" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn dataDxfId="7" id="3" name="GENDER" queryTableFieldId="1" uniqueName="3"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Query_Customer_Relationship" displayName="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0" headerRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Customer_Relationship" headerRowDxfId="71" id="3" name="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="H1:H14"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Customer Relationship" queryTableFieldId="1" dataDxfId="70"/>
+    <tableColumn dataDxfId="70" id="1" name="Customer Relationship" queryTableFieldId="1" uniqueName="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Query_Bank" displayName="Query_Bank" ref="J1:K147" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="68" displayName="Query_Bank" headerRowDxfId="69" id="4" insertRowShift="1" name="Query_Bank" ref="J1:K147" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="J1:K147"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="BANK NAME" queryTableFieldId="1" dataDxfId="67"/>
-    <tableColumn id="2" uniqueName="2" name="BANK CODE" queryTableFieldId="2" dataDxfId="66"/>
+    <tableColumn dataDxfId="67" id="1" name="BANK NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="66" id="2" name="BANK CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Query_Debtor_Group" displayName="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="64" displayName="Query_Debtor_Group" headerRowDxfId="65" id="5" insertRowShift="1" name="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N315"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" dataDxfId="63"/>
-    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" dataDxfId="62"/>
+    <tableColumn dataDxfId="63" id="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="62" id="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Query_Debtor_Business_Scale" displayName="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="60" displayName="Query_Debtor_Business_Scale" headerRowDxfId="61" id="6" insertRowShift="1" name="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="P1:Q6"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Debtor Business Scale Description" queryTableFieldId="1" dataDxfId="59"/>
-    <tableColumn id="2" uniqueName="2" name="Debtor Group Code" queryTableFieldId="2" dataDxfId="58"/>
+    <tableColumn dataDxfId="59" id="1" name="Debtor Business Scale Description" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="58" id="2" name="Debtor Group Code" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Query_Counterpart" displayName="Query_Counterpart" ref="S1:T175" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="56" displayName="Query_Counterpart" headerRowDxfId="57" id="7" insertRowShift="1" name="Query_Counterpart" ref="S1:T175" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="S1:T175"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Counterpart Category" queryTableFieldId="1" dataDxfId="55"/>
-    <tableColumn id="2" uniqueName="2" name="LBPP CODE" queryTableFieldId="2" dataDxfId="54"/>
+    <tableColumn dataDxfId="55" id="1" name="Counterpart Category" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="54" id="2" name="LBPP CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Query_Sustainable_Financial" displayName="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="52" displayName="Query_Sustainable_Financial" headerRowDxfId="53" id="8" insertRowShift="1" name="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:W14"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Sustainable Financial Business" queryTableFieldId="1" dataDxfId="51"/>
-    <tableColumn id="2" uniqueName="2" name="LBPP Code" queryTableFieldId="2" dataDxfId="50"/>
+    <tableColumn dataDxfId="51" id="1" name="Sustainable Financial Business" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="50" id="2" name="LBPP Code" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Query_debtor_group_slik" displayName="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" insertRowShift="1" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="48" displayName="Query_debtor_group_slik" headerRowDxfId="49" id="9" insertRowShift="1" name="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Y1:Z193"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" dataDxfId="47"/>
-    <tableColumn id="2" uniqueName="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" dataDxfId="46"/>
+    <tableColumn dataDxfId="47" id="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="46" id="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
@@ -14469,10 +14501,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14507,7 +14539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -14542,7 +14574,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -14636,21 +14668,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -14667,7 +14699,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -14719,29 +14751,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -14758,13 +14790,13 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4129</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4130</v>
       </c>
@@ -14772,31 +14804,31 @@
         <v>4149</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:11" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="48"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -14813,7 +14845,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -14822,7 +14854,7 @@
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -14837,7 +14869,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -14852,7 +14884,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -14867,7 +14899,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4150</v>
       </c>
@@ -14884,7 +14916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4151</v>
       </c>
@@ -14901,7 +14933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4152</v>
       </c>
@@ -14918,12 +14950,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>4153</v>
       </c>
@@ -14940,17 +14972,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>4154</v>
       </c>
@@ -14967,7 +14999,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>4155</v>
       </c>
@@ -14988,7 +15020,7 @@
         <v>COUNTRY001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>4156</v>
       </c>
@@ -15011,7 +15043,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>4157</v>
       </c>
@@ -15028,7 +15060,7 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>4158</v>
       </c>
@@ -15045,7 +15077,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>4159</v>
       </c>
@@ -15062,99 +15094,99 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B25:XFD26">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule dxfId="6" priority="3" type="expression">
       <formula>AND(B$24&lt;&gt;"Foreigner",B$24&lt;&gt;"",B$24&lt;&gt;"Nationality")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:XFD29">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule dxfId="5" priority="2" type="expression">
       <formula>B$18="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule dxfId="4" priority="1" type="expression">
       <formula>A$19="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:K28">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F28:K28" type="list">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:K27">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F27:K27" type="list">
       <formula1>"S1, S2, S3, SD, SMP, SMA"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B20:K20"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F17:K19">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="B20:K20"/>
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F17:K19" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F24:K24">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F24:K24" type="list">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F21:K21">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F21:K21" type="list">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E14">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B14:E14" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B17:E19">
+    <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B17:E19" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:E21">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B21:E21" type="list">
       <formula1>"Mr, Mrs, Ms"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:E24">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B24:E24" type="list">
       <formula1>"Local, Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:E25">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B25:E25" type="custom">
       <formula1>B$24="Foreigner"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:E27">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B27:E27" type="list">
       <formula1>"S1, S2, S3, SD, SMP, SMA, D3"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:E28">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B28:E28" type="list">
       <formula1>"Buddha, Catholic, Christian, Hindu, Islam, Kong Hu Cu, AGNOSTIK"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:E29">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B29:E29" type="custom">
       <formula1>B$18="Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:E26">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B26:E26" type="list">
       <formula1>ListCountry</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4068</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3289</v>
+      <c r="B1" t="s">
+        <v>4216</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4216</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3289</v>
@@ -15163,17 +15195,23 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4129</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4130</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4160</v>
       </c>
@@ -15181,17 +15219,35 @@
         <f>IF(B13="",COUNTIFS($A$12:$A$32, "*$*",B12:B32,""),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <f>IF(C13="",COUNTIFS($A$12:$A$32, "*$*",C12:C32,""),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
+    </row>
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>'1.CustomerDetail'!B12</f>
+        <v>BLI GUNG</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>'1.CustomerDetail'!B12</f>
+        <v>BLI GUNG</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="48"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>4161</v>
       </c>
@@ -15208,7 +15264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -15231,7 +15287,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>4162</v>
       </c>
@@ -15254,7 +15310,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>4163</v>
       </c>
@@ -15277,7 +15333,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>4164</v>
       </c>
@@ -15300,7 +15356,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>4165</v>
       </c>
@@ -15323,7 +15379,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>4166</v>
       </c>
@@ -15346,7 +15402,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>4167</v>
       </c>
@@ -15369,7 +15425,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>4168</v>
       </c>
@@ -15392,11 +15448,13 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>4169</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>4245</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -15407,11 +15465,13 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>4170</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>3525254</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -15422,7 +15482,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>252</v>
       </c>
@@ -15437,7 +15497,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>253</v>
       </c>
@@ -15452,7 +15512,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>254</v>
       </c>
@@ -15467,7 +15527,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>255</v>
       </c>
@@ -15482,7 +15542,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>256</v>
       </c>
@@ -15497,7 +15557,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>257</v>
       </c>
@@ -15512,7 +15572,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>258</v>
       </c>
@@ -15527,7 +15587,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>259</v>
       </c>
@@ -15542,7 +15602,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>260</v>
       </c>
@@ -15557,7 +15617,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>4171</v>
       </c>
@@ -15576,50 +15636,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule dxfId="3" priority="2" type="expression">
       <formula>AND(B$13&lt;&gt;"",B$13&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule dxfId="2" priority="1" type="expression">
       <formula>AND(A$13&lt;&gt;"",A$13&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F32:K32">
+  <dataValidations count="6">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F32:K32" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F12:K12">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F12:K12" type="list">
       <formula1>"Legal, Mailing, Residence, Residence 2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:K13">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="I13:K13" type="list">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:E20">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B14:E20" type="custom">
       <formula1>ISBLANK(B$13)</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B12:E12">
+    <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B12:E12" type="list">
       <formula1>"Legal, Mailing, Residence, Residence 2"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E19">
-      <formula1>ISBLANK(B$13)</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B32:E32">
+    <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B32:E32" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$110</xm:f>
           </x14:formula1>
           <xm:sqref>F13:H13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$BE$2:$BE$20</xm:f>
           </x14:formula1>
@@ -15632,20 +15689,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="24" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -15662,17 +15719,17 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4129</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4130</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4160</v>
       </c>
@@ -15681,28 +15738,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
         <v>4214</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+    </row>
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4214</v>
       </c>
@@ -15716,22 +15773,22 @@
         <v>4174</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+    <row customFormat="1" r="13" s="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
         <v>3562</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+    </row>
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>4175</v>
       </c>
@@ -15758,7 +15815,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>4176</v>
       </c>
@@ -15781,7 +15838,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>4177</v>
       </c>
@@ -15804,7 +15861,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>4178</v>
       </c>
@@ -15827,7 +15884,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -15844,7 +15901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -15861,7 +15918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>4179</v>
       </c>
@@ -15878,7 +15935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>4180</v>
       </c>
@@ -15899,7 +15956,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>4181</v>
       </c>
@@ -15916,12 +15973,12 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>4182</v>
       </c>
@@ -15944,7 +16001,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>242</v>
       </c>
@@ -15959,7 +16016,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -15974,12 +16031,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+    <row customFormat="1" r="27" s="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="50" t="s">
         <v>4070</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -16000,7 +16057,7 @@
         <v>ARCHT</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -16017,7 +16074,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -16034,12 +16091,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4071</v>
       </c>
@@ -16060,7 +16117,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4072</v>
       </c>
@@ -16077,7 +16134,7 @@
         <v>4073</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4074</v>
       </c>
@@ -16094,7 +16151,7 @@
         <v>1823612696</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4075</v>
       </c>
@@ -16111,7 +16168,7 @@
         <v>44059</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>242</v>
       </c>
@@ -16128,12 +16185,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
+    <row customFormat="1" r="37" s="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
         <v>4076</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4175</v>
       </c>
@@ -16154,7 +16211,7 @@
         <v>SME0006</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4176</v>
       </c>
@@ -16171,7 +16228,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>4183</v>
       </c>
@@ -16188,12 +16245,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
+    <row customFormat="1" r="41" s="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="50" t="s">
         <v>4077</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -16214,7 +16271,7 @@
         <v>ENTR</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="43" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -16231,7 +16288,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="44" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -16248,7 +16305,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="45" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -16265,7 +16322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="46" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>241</v>
       </c>
@@ -16282,7 +16339,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="47" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>4071</v>
       </c>
@@ -16303,7 +16360,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="48" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>4072</v>
       </c>
@@ -16320,12 +16377,12 @@
         <v>4079</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="49" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4080</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="50" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>4081</v>
       </c>
@@ -16342,7 +16399,7 @@
         <v>4145</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="51" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>242</v>
       </c>
@@ -16359,7 +16416,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="52" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -16376,27 +16433,27 @@
         <v>503</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="53" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>4083</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+    <row customFormat="1" r="54" s="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="51" t="s">
         <v>3563</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="57"/>
-    </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="53"/>
+    </row>
+    <row customFormat="1" r="55" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>4162</v>
       </c>
@@ -16413,7 +16470,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="56" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>4163</v>
       </c>
@@ -16436,7 +16493,7 @@
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="57" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>4164</v>
       </c>
@@ -16459,7 +16516,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="58" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>4165</v>
       </c>
@@ -16482,7 +16539,7 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="59" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>4167</v>
       </c>
@@ -16505,7 +16562,7 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="60" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>4166</v>
       </c>
@@ -16528,7 +16585,7 @@
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="61" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>4168</v>
       </c>
@@ -16551,7 +16608,7 @@
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="62" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -16566,7 +16623,7 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="63" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>250</v>
       </c>
@@ -16581,7 +16638,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="64" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>251</v>
       </c>
@@ -16596,7 +16653,7 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="65" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>252</v>
       </c>
@@ -16611,7 +16668,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="66" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>253</v>
       </c>
@@ -16626,7 +16683,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="67" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>254</v>
       </c>
@@ -16641,7 +16698,7 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="68" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>255</v>
       </c>
@@ -16656,7 +16713,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="69" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>256</v>
       </c>
@@ -16671,7 +16728,7 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="70" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>257</v>
       </c>
@@ -16686,7 +16743,7 @@
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="71" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>258</v>
       </c>
@@ -16701,7 +16758,7 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="72" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>259</v>
       </c>
@@ -16716,7 +16773,7 @@
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="73" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>260</v>
       </c>
@@ -16731,32 +16788,32 @@
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="74" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="55" t="s">
+    <row customFormat="1" r="75" s="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="51" t="s">
         <v>3564</v>
       </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="57"/>
-    </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="53"/>
+    </row>
+    <row customFormat="1" r="76" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="77" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>244</v>
       </c>
@@ -16765,22 +16822,22 @@
       <c r="D77" s="37"/>
       <c r="E77" s="37"/>
     </row>
-    <row r="78" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="55" t="s">
+    <row customFormat="1" r="78" s="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="51" t="s">
         <v>3565</v>
       </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="57"/>
-    </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="53"/>
+    </row>
+    <row customFormat="1" r="79" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>304</v>
       </c>
@@ -16797,7 +16854,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="80" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>305</v>
       </c>
@@ -16820,7 +16877,7 @@
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="81" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>306</v>
       </c>
@@ -16843,7 +16900,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="82" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>307</v>
       </c>
@@ -16866,7 +16923,7 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="83" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>308</v>
       </c>
@@ -16889,7 +16946,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="84" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>309</v>
       </c>
@@ -16912,7 +16969,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="85" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>310</v>
       </c>
@@ -16935,7 +16992,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="86" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>311</v>
       </c>
@@ -16950,7 +17007,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="87" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>312</v>
       </c>
@@ -16965,7 +17022,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="88" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>313</v>
       </c>
@@ -16980,7 +17037,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="89" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>314</v>
       </c>
@@ -16995,7 +17052,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="90" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>315</v>
       </c>
@@ -17010,7 +17067,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="91" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>316</v>
       </c>
@@ -17025,7 +17082,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="92" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>317</v>
       </c>
@@ -17040,7 +17097,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="93" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>318</v>
       </c>
@@ -17055,7 +17112,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="94" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>319</v>
       </c>
@@ -17070,7 +17127,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="95" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>320</v>
       </c>
@@ -17085,7 +17142,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="96" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>321</v>
       </c>
@@ -17100,7 +17157,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="97" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>322</v>
       </c>
@@ -17115,47 +17172,47 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="98" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="51" t="s">
+    <row customFormat="1" r="99" s="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="55" t="s">
         <v>3566</v>
       </c>
-      <c r="B99" s="52"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52"/>
-      <c r="K99" s="53"/>
-    </row>
-    <row r="100" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="56"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="56"/>
+      <c r="J99" s="56"/>
+      <c r="K99" s="57"/>
+    </row>
+    <row customFormat="1" r="100" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="101" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="102" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="103" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="104" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>248</v>
       </c>
@@ -17164,27 +17221,27 @@
       <c r="D104" s="37"/>
       <c r="E104" s="37"/>
     </row>
-    <row r="105" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="51" t="s">
+    <row customFormat="1" r="105" s="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="55" t="s">
         <v>3567</v>
       </c>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="52"/>
-      <c r="H105" s="52"/>
-      <c r="I105" s="52"/>
-      <c r="J105" s="52"/>
-      <c r="K105" s="53"/>
-    </row>
-    <row r="106" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="56"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="56"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="57"/>
+    </row>
+    <row customFormat="1" r="106" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="107" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>285</v>
       </c>
@@ -17199,7 +17256,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="108" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>286</v>
       </c>
@@ -17214,7 +17271,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="109" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>287</v>
       </c>
@@ -17229,22 +17286,22 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="110" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="111" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="112" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="113" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>291</v>
       </c>
@@ -17259,7 +17316,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="114" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>292</v>
       </c>
@@ -17274,7 +17331,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="115" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>293</v>
       </c>
@@ -17289,7 +17346,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="116" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>294</v>
       </c>
@@ -17304,7 +17361,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="117" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>295</v>
       </c>
@@ -17319,7 +17376,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="118" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>296</v>
       </c>
@@ -17334,7 +17391,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="119" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>297</v>
       </c>
@@ -17349,7 +17406,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="120" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>298</v>
       </c>
@@ -17364,7 +17421,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="121" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>299</v>
       </c>
@@ -17379,7 +17436,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="122" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>300</v>
       </c>
@@ -17394,7 +17451,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="123" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>301</v>
       </c>
@@ -17409,7 +17466,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="124" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>302</v>
       </c>
@@ -17424,7 +17481,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="125" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>303</v>
       </c>
@@ -17437,49 +17494,49 @@
     <mergeCell ref="A99:XFD99"/>
   </mergeCells>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:K22 F18:K19">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F22:K22 F18:K19" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F125:K125 F98:K98 F74:K74">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F125:K125 F98:K98 F74:K74" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F17:K17">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F17:K17" type="list">
       <formula1>"Contract, Permanent"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:E52 B26:E26">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B52:E52 B26:E26" type="whole">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44:E44 B16:E16">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B44:E44 B16:E16" type="list">
       <formula1>ListJobPosition</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B125:E125 B74:E74 B98:E98">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B125:E125 B74:E74 B98:E98" type="list">
       <formula1>"Dinas, Family, KPR, Rented, Self - Owned"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53:E53">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B53:E53" type="list">
       <formula1>"Domestic Investment, Foreign Investment"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E14"/>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15 B29:E29 B39:E39 B43:E43">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B14:E14"/>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B15:E15 B29:E29 B39:E39 B43:E43" type="list">
       <formula1>ListJobProfession</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:E17">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B17:E17" type="list">
       <formula1>"Contract, Permanent"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:E19 B30:E30 B45:E45">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B18:E19 B30:E30 B45:E45" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:E22 B33:E33 B48:E48">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B22:E22 B33:E33 B48:E48" type="list">
       <formula1>ListIndustryType</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list">
           <x14:formula1>
             <xm:f>Master!$E$2:$E$29</xm:f>
           </x14:formula1>
@@ -17492,8 +17549,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:A42"/>
@@ -17501,14 +17558,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -17525,17 +17582,17 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4129</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4130</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4160</v>
       </c>
@@ -17544,19 +17601,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
     </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4097</v>
       </c>
@@ -17573,7 +17630,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>324</v>
       </c>
@@ -17582,7 +17639,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>37</v>
       </c>
@@ -17605,7 +17662,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>4127</v>
       </c>
@@ -17616,7 +17673,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4100</v>
       </c>
@@ -17627,7 +17684,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>4101</v>
       </c>
@@ -17638,7 +17695,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4102</v>
       </c>
@@ -17649,7 +17706,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>38</v>
       </c>
@@ -17672,7 +17729,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4103</v>
       </c>
@@ -17683,7 +17740,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>4104</v>
       </c>
@@ -17694,7 +17751,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4105</v>
       </c>
@@ -17705,7 +17762,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>4106</v>
       </c>
@@ -17716,7 +17773,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>4107</v>
       </c>
@@ -17727,7 +17784,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>4108</v>
       </c>
@@ -17738,7 +17795,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -17749,12 +17806,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -17763,7 +17820,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -17772,7 +17829,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
@@ -17781,7 +17838,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="31" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -17790,7 +17847,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
@@ -17799,7 +17856,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -17808,7 +17865,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>250</v>
       </c>
@@ -17817,7 +17874,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>251</v>
       </c>
@@ -17826,7 +17883,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>252</v>
       </c>
@@ -17835,22 +17892,22 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>256</v>
       </c>
@@ -17859,7 +17916,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>257</v>
       </c>
@@ -17868,7 +17925,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>258</v>
       </c>
@@ -17879,62 +17936,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B27:E39">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule dxfId="1" priority="2" type="expression">
       <formula>AND(B$13&lt;&gt;"",B$13&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F14:K14">
+    <dataValidation showErrorMessage="1" showInputMessage="1" sqref="F14:K14" type="list">
       <formula1>"AKTA, CAT CAT, CAT IS A CAT, DESCRIPTION FOR AAA, DESCRIPTION FOR ASA, DESCRIPTION FOR KTP, E-KTP, KITAS, NPWP, SIM"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:E39">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B39:E39" type="custom">
       <formula1>ISBLANK(B$13)</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:E27">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B27:E27" type="custom">
       <formula1>ISBLANK(B$26)</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:E12">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B12:E12" type="list">
       <formula1>"Input Data, LookUp"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B16:E16">
+    <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B16:E16" type="list">
       <formula1>ListIdType</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B19:E19" type="list">
       <formula1>ListCusRel</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:E26">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B26:E26" type="list">
       <formula1>"Job, Legal, Residence"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:E38">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B28:E38" type="custom">
       <formula1>ISBLANK(B$13)</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:E42"/>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B40:E42"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -17951,17 +18008,17 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4129</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4130</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4160</v>
       </c>
@@ -17970,28 +18027,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+    <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="6" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
         <v>3568</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+    </row>
+    <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>4184</v>
       </c>
@@ -18014,7 +18071,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -18029,7 +18086,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -18052,7 +18109,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -18067,7 +18124,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -18082,7 +18139,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>4185</v>
       </c>
@@ -18105,7 +18162,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4090</v>
       </c>
@@ -18128,7 +18185,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>4091</v>
       </c>
@@ -18151,22 +18208,22 @@
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
     </row>
-    <row r="20" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+    <row customFormat="1" r="20" s="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
         <v>3569</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
+    </row>
+    <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -18189,28 +18246,28 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+    <row customFormat="1" r="22" s="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
         <v>3570</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+    </row>
+    <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="3" t="str">
         <f>VLOOKUP(B24,Master!$J$1:$K$204,2,FALSE)</f>
-        <v>014</v>
+        <v>BD-0001</v>
       </c>
       <c r="C23" s="3" t="str">
         <f>VLOOKUP(C24,Master!$J$1:$K$204,2,FALSE)</f>
@@ -18231,12 +18288,12 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>684</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>346</v>
@@ -18254,7 +18311,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>49</v>
       </c>
@@ -18271,7 +18328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>50</v>
       </c>
@@ -18288,7 +18345,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="27" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>51</v>
       </c>
@@ -18311,7 +18368,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -18328,7 +18385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -18345,7 +18402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>685</v>
       </c>
@@ -18369,75 +18426,75 @@
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G28:K30 F28:F29">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G28:K30 F28:F29" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:K14">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F14:K14" type="list">
       <formula1>"Business, Online Shop, Salary, Stock Trading"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B13:E13" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+27</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:E16">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B16:E16" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:E21">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B21:E21" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+24</formula2>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:E30">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B30:E30" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+23</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:E24">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B24:E24" type="list">
       <formula1>ListBank</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:E12">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B12:E12" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+27</formula2>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E14">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B14:E14" type="list">
       <formula1>"Business, Online Shop, Salary, Stock Trading"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:E18"/>
-    <dataValidation type="list" errorStyle="information" showInputMessage="1" showErrorMessage="1" sqref="B19:E19">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B18:E18"/>
+    <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B19:E19" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:E29">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B28:E29" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4068</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -18450,79 +18507,97 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4129</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4130</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4160</v>
       </c>
       <c r="B4" s="1">
-        <f>COUNTIFS($A$12:$A$15,"*$*",B12:B15,"")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="58" customFormat="1" x14ac:dyDescent="0.25">
+        <f>IF(B12="Yes",COUNTIFS($A$13:$A$16,"*$*",B13:B16,""),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="6" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="48"/>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+    <row customFormat="1" r="12" s="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="59" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customFormat="1" r="13" s="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>4186</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row customFormat="1" r="14" s="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="B14" s="1" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" s="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>4187</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="B15" s="39" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row customFormat="1" r="16" s="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>4188</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>4222</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:E12">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="C13:E13" type="list">
       <formula1>"Mobil, Motor, Rumah"</formula1>
     </dataValidation>
-    <dataValidation type="whole" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:E15">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="C15:E16" type="whole">
       <formula1>0</formula1>
       <formula2>999999999999999000000</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD10"/>
@@ -18530,12 +18605,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="14.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="15.0" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" style="7" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -18552,17 +18627,17 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4129</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4130</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4160</v>
       </c>
@@ -18571,22 +18646,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+    <row customFormat="1" r="5" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="6" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
         <v>3571</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+    </row>
+    <row customFormat="1" r="12" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>4189</v>
       </c>
@@ -18607,7 +18682,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>4190</v>
       </c>
@@ -18624,7 +18699,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>4191</v>
       </c>
@@ -18645,7 +18720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="15" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>4192</v>
       </c>
@@ -18662,7 +18737,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>4193</v>
       </c>
@@ -18683,7 +18758,7 @@
         <v>e2953</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="135" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>4194</v>
       </c>
@@ -18700,7 +18775,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>4195</v>
       </c>
@@ -18721,7 +18796,7 @@
         <v>e3819</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>4196</v>
       </c>
@@ -18738,16 +18813,16 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+    <row customFormat="1" r="20" s="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
         <v>3572</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+    </row>
+    <row customFormat="1" r="21" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1600</v>
       </c>
@@ -18764,7 +18839,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>4197</v>
       </c>
@@ -18785,7 +18860,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="23" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>4198</v>
       </c>
@@ -18802,7 +18877,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="24" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1601</v>
       </c>
@@ -18819,7 +18894,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="25" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1602</v>
       </c>
@@ -18836,7 +18911,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="26" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>4199</v>
       </c>
@@ -18857,7 +18932,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="27" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>4200</v>
       </c>
@@ -18874,7 +18949,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="28" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>4201</v>
       </c>
@@ -18895,7 +18970,7 @@
         <v>00651</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="29" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>4202</v>
       </c>
@@ -18912,7 +18987,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="30" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>4203</v>
       </c>
@@ -18933,7 +19008,7 @@
         <v>00055</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="31" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>4204</v>
       </c>
@@ -18950,7 +19025,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="32" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>4205</v>
       </c>
@@ -18971,7 +19046,7 @@
         <v>PAYMENT_TYPEX_AUTOPAYMENT</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>4206</v>
       </c>
@@ -18988,7 +19063,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="34" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>4207</v>
       </c>
@@ -19005,7 +19080,7 @@
         <v>4067</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="35" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>4208</v>
       </c>
@@ -19026,7 +19101,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="36" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1604</v>
       </c>
@@ -19035,7 +19110,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="37" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>4209</v>
       </c>
@@ -19052,7 +19127,7 @@
         <v>44394</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="38" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>4210</v>
       </c>
@@ -19073,7 +19148,7 @@
         <v>BISNIS_SENDIRI</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="39" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>4211</v>
       </c>
@@ -19090,7 +19165,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="40" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>4212</v>
       </c>
@@ -19107,7 +19182,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="41" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>4213</v>
       </c>
@@ -19128,7 +19203,7 @@
         <v>CONTRACT</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="42" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>1605</v>
       </c>
@@ -19150,58 +19225,58 @@
     <mergeCell ref="A11:XFD11"/>
   </mergeCells>
   <dataValidations count="15">
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34:E34">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B34:E34" type="list">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:E13">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B13:E13" type="list">
       <formula1>ListDebtGroup</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:E15">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="list">
       <formula1>ListDebtorBusinessScale</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:E17">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B17:E17" type="list">
       <formula1>ListCounterpart</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:E19">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B19:E19" type="list">
       <formula1>ListSusFinBus</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:E23">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B23:E23" type="list">
       <formula1>ListDebtGroupSLIK</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27:E27">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B27:E27" type="list">
       <formula1>ListAfWiMult</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:E29">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B29:E29" type="list">
       <formula1>ListDeptAML</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:E31">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B31:E31" type="list">
       <formula1>ListCSPUSL</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33:E33">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B33:E33" type="list">
       <formula1>ListPaymentTypeAML</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:E36">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B36:E36" type="list">
       <formula1>ListAuthorityAML</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:E39">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B39:E39" type="list">
       <formula1>ListBusinessSource</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:E42">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B42:E42" type="list">
       <formula1>ListBuilding</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21:E21 B24:E25">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B21:E21 B24:E25" type="list">
       <formula1>"YES, NO"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38:E38"/>
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B38:E38"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DB882"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DC882"/>
   <sheetViews>
     <sheetView topLeftCell="BA2" workbookViewId="0">
       <selection activeCell="BI3" sqref="BI3"/>
@@ -19209,48 +19284,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.28515625" style="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30" style="17" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.85546875" style="19" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="33.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="255.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.85546875" style="17" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="80.140625" style="22" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="80.7109375" style="23" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="21.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="79.85546875" style="23" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="8.140625" style="20" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="89" style="17" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="25.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23" style="17" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="28.5703125" style="20" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="25.140625" style="17" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="31.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="12.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="17.42578125" style="17" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="9.140625" style="17" collapsed="1"/>
-    <col min="49" max="49" width="97.7109375" style="17" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="22.5703125" style="17" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="15" width="42.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="14" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="17" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="17" width="23.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="17" width="35.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="19" width="18.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="29.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="17" width="22.85546875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="17" width="33.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="17" width="20.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="17" width="255.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="17" width="12.85546875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="22" width="80.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="17" width="12.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="23" width="80.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="20" width="21.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="23" width="79.85546875" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="20" width="8.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="17" width="89.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="17" width="25.5703125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="17" width="23.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="20" width="28.5703125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="17" width="25.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="17" width="31.140625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" style="17" width="12.42578125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="17" width="17.42578125" collapsed="true"/>
+    <col min="48" max="48" style="17" width="9.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="17" width="97.7109375" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" style="17" width="22.5703125" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="10.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="1" s="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>3290</v>
       </c>
@@ -20171,7 +20246,7 @@
         <v>4117</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>76</v>
       </c>
@@ -20253,7 +20328,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>78</v>
       </c>
@@ -20324,7 +20399,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>80</v>
       </c>
@@ -23700,7 +23775,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="77" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>208</v>
       </c>
@@ -23750,7 +23825,7 @@
         <v>3727</v>
       </c>
     </row>
-    <row r="78" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>210</v>
       </c>
@@ -24350,7 +24425,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="90" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="90" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>232</v>
       </c>
@@ -24400,7 +24475,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="91" spans="1:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="91" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>233</v>
       </c>
@@ -24977,7 +25052,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="103" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="103" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J103" s="18" t="s">
         <v>445</v>
       </c>
@@ -25021,7 +25096,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="104" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="104" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J104" s="18" t="s">
         <v>346</v>
       </c>
@@ -25241,7 +25316,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="109" spans="10:106" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="109" spans="10:106" x14ac:dyDescent="0.25">
       <c r="J109" s="18" t="s">
         <v>366</v>
       </c>
@@ -25505,7 +25580,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="115" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="115" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J115" s="18" t="s">
         <v>465</v>
       </c>
@@ -25549,7 +25624,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="116" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="116" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J116" s="18" t="s">
         <v>467</v>
       </c>
@@ -26517,7 +26592,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="138" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="138" spans="10:54" x14ac:dyDescent="0.25">
       <c r="J138" s="18" t="s">
         <v>506</v>
       </c>
@@ -27113,7 +27188,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="152" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="152" spans="10:54" x14ac:dyDescent="0.25">
       <c r="K152" s="20"/>
       <c r="M152" s="18" t="s">
         <v>837</v>
@@ -27152,7 +27227,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="153" spans="10:54" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="153" spans="10:54" x14ac:dyDescent="0.25">
       <c r="K153" s="20"/>
       <c r="M153" s="18" t="s">
         <v>838</v>
@@ -34008,8 +34083,8 @@
       <c r="AF882" s="20"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
   <tableParts count="21">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/Excel/2.1.1 CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/2.1.1 CustomerDataCompletion-Personal - Customer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="1" tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" firstSheet="1" tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="1.CustomerDetail" r:id="rId1" sheetId="1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="4223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="4224">
   <si>
     <t>Full Name</t>
   </si>
@@ -13076,6 +13076,9 @@
   </si>
   <si>
     <t>2;2</t>
+  </si>
+  <si>
+    <t>5000000;1000000</t>
   </si>
 </sst>
 </file>
@@ -13355,66 +13358,17 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="6" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="78">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt formatCode="General" numFmtId="0"/>
     </dxf>
@@ -14031,6 +13985,55 @@
       </fill>
       <alignment horizontal="left" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
@@ -14271,106 +14274,106 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="76" displayName="Query_Job_Profession" headerRowDxfId="77" id="1" insertRowShift="1" name="Query_Job_Profession" ref="A1:B95" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="69" displayName="Query_Job_Profession" headerRowDxfId="70" id="1" insertRowShift="1" name="Query_Job_Profession" ref="A1:B95" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B95"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="75" id="1" name="JOB PROFESSION NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="74" id="2" name="JOB POSITION CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="68" id="1" name="JOB PROFESSION NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="67" id="2" name="JOB POSITION CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="44" displayName="Query_Affiliate_with_Multifinance" headerRowDxfId="45" id="10" insertRowShift="1" name="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="37" displayName="Query_Affiliate_with_Multifinance" headerRowDxfId="38" id="10" insertRowShift="1" name="Query_Affiliate_with_Multifinance" ref="AB1:AC16" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AB1:AC16"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="43" id="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="42" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="36" id="1" name="AFFILIATE WITH MULTIFINANCE SLIK" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="35" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="40" displayName="Query_Department_AML" headerRowDxfId="41" id="11" insertRowShift="1" name="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="33" displayName="Query_Department_AML" headerRowDxfId="34" id="11" insertRowShift="1" name="Query_Department_AML" ref="AE1:AF492" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AE1:AF492"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="39" id="1" name="DEPARTMENT AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="38" id="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="32" id="1" name="DEPARTMENT AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="31" id="2" name="DEPARTMENT AML CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="36" displayName="Query_csp_usl_source_aml" headerRowDxfId="37" id="12" insertRowShift="1" name="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="29" displayName="Query_csp_usl_source_aml" headerRowDxfId="30" id="12" insertRowShift="1" name="Query_csp_usl_source_aml" ref="AH1:AI10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AH1:AI10"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="35" id="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="34" id="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="28" id="1" name="CSP/USL SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="27" id="2" name="CSP/USL SOURCE AML CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="32" displayName="Query_payment_type_aml" headerRowDxfId="33" id="13" insertRowShift="1" name="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="25" displayName="Query_payment_type_aml" headerRowDxfId="26" id="13" insertRowShift="1" name="Query_payment_type_aml" ref="AK1:AL3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AK1:AL3"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="31" id="1" name="PAYMENT TYPE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="30" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="24" id="1" name="PAYMENT TYPE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="23" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="28" displayName="Query_authority_aml" headerRowDxfId="29" id="14" insertRowShift="1" name="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="21" displayName="Query_authority_aml" headerRowDxfId="22" id="14" insertRowShift="1" name="Query_authority_aml" ref="AN1:AO9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AN1:AO9"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="27" id="1" name="AUTHORITY AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="26" id="2" name="AUTHORITY AML2" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="20" id="1" name="AUTHORITY AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="19" id="2" name="AUTHORITY AML2" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="24" displayName="Query_Business_Source" headerRowDxfId="25" id="15" insertRowShift="1" name="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="17" displayName="Query_Business_Source" headerRowDxfId="18" id="15" insertRowShift="1" name="Query_Business_Source" ref="AQ1:AR2" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AQ1:AR2"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="23" id="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="22" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="16" id="1" name="BUSINESS SOURCE AML" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="15" id="2" name="CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="20" displayName="query_building" headerRowDxfId="21" id="16" insertRowShift="1" name="query_building" ref="AT1:AU8" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="13" displayName="query_building" headerRowDxfId="14" id="16" insertRowShift="1" name="query_building" ref="AT1:AU8" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AT1:AU8"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="19" id="1" name="BUILDING" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="18" id="2" name="BUILDING CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="12" id="1" name="BUILDING" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="11" id="2" name="BUILDING CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="16" displayName="Query_Industry_Type" headerRowDxfId="17" id="17" insertRowShift="1" name="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="9" displayName="Query_Industry_Type" headerRowDxfId="10" id="17" insertRowShift="1" name="Query_Industry_Type" ref="AW1:AX263" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="AW1:AX263"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="15" id="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="14" id="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="8" id="1" name="INDUSTRY TYPE NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="7" id="2" name="INDUSTRY TYPE CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Country" headerRowDxfId="13" id="18" name="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Country" headerRowDxfId="6" id="18" name="Query_Country" ref="BA1:BB242" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BA1:BB242"/>
   <tableColumns count="2">
     <tableColumn id="5" name="COUNTRY NAME" queryTableFieldId="1" uniqueName="5"/>
@@ -14381,116 +14384,116 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Copy_Address_From" headerRowDxfId="12" id="19" name="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Copy_Address_From" headerRowDxfId="5" id="19" name="Query_Copy_Address_From" ref="BE1:BE10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BE1:BE10"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="11" id="3" name="Copy Address" queryTableFieldId="1" uniqueName="3"/>
+    <tableColumn dataDxfId="4" id="3" name="Copy Address" queryTableFieldId="1" uniqueName="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Job_Position" headerRowDxfId="73" id="2" name="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Job_Position" headerRowDxfId="66" id="2" name="Query_Job_Position" ref="E1:E30" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:E30"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="72" id="1" name="JOB POSITION NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="65" id="1" name="JOB POSITION NAME" queryTableFieldId="1" uniqueName="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" headerRowDxfId="10" id="20" name="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="BG1:BG15" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION" headerRowDxfId="3" id="20" name="_r3db_server_ad_ins_com\r3__FOUNDATION" ref="BG1:BG15" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BG1:BG15"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="9" id="3" name="ID TYPE" queryTableFieldId="1" uniqueName="3"/>
+    <tableColumn dataDxfId="2" id="3" name="ID TYPE" queryTableFieldId="1" uniqueName="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" headerRowDxfId="8" id="21" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="BI1:BI3" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="_r3db_server_ad_ins_com\r3__FOUNDATION__2" headerRowDxfId="1" id="21" name="_r3db_server_ad_ins_com\r3__FOUNDATION__2" ref="BI1:BI3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="BI1:BI3"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="7" id="3" name="GENDER" queryTableFieldId="1" uniqueName="3"/>
+    <tableColumn dataDxfId="0" id="3" name="GENDER" queryTableFieldId="1" uniqueName="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Customer_Relationship" headerRowDxfId="71" id="3" name="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Query_Customer_Relationship" headerRowDxfId="64" id="3" name="Query_Customer_Relationship" ref="H1:H14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="H1:H14"/>
   <tableColumns count="1">
-    <tableColumn dataDxfId="70" id="1" name="Customer Relationship" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="63" id="1" name="Customer Relationship" queryTableFieldId="1" uniqueName="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="68" displayName="Query_Bank" headerRowDxfId="69" id="4" insertRowShift="1" name="Query_Bank" ref="J1:K147" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="61" displayName="Query_Bank" headerRowDxfId="62" id="4" insertRowShift="1" name="Query_Bank" ref="J1:K147" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="J1:K147"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="67" id="1" name="BANK NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="66" id="2" name="BANK CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="60" id="1" name="BANK NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="59" id="2" name="BANK CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="64" displayName="Query_Debtor_Group" headerRowDxfId="65" id="5" insertRowShift="1" name="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="57" displayName="Query_Debtor_Group" headerRowDxfId="58" id="5" insertRowShift="1" name="Query_Debtor_Group" ref="M1:N315" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="M1:N315"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="63" id="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="62" id="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="56" id="1" name="DEBTOR GROUP NAME" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="55" id="2" name="DEBTOR GROUP CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="60" displayName="Query_Debtor_Business_Scale" headerRowDxfId="61" id="6" insertRowShift="1" name="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="53" displayName="Query_Debtor_Business_Scale" headerRowDxfId="54" id="6" insertRowShift="1" name="Query_Debtor_Business_Scale" ref="P1:Q6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="P1:Q6"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="59" id="1" name="Debtor Business Scale Description" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="58" id="2" name="Debtor Group Code" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="52" id="1" name="Debtor Business Scale Description" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="51" id="2" name="Debtor Group Code" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="56" displayName="Query_Counterpart" headerRowDxfId="57" id="7" insertRowShift="1" name="Query_Counterpart" ref="S1:T175" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="49" displayName="Query_Counterpart" headerRowDxfId="50" id="7" insertRowShift="1" name="Query_Counterpart" ref="S1:T175" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="S1:T175"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="55" id="1" name="Counterpart Category" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="54" id="2" name="LBPP CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="48" id="1" name="Counterpart Category" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="47" id="2" name="LBPP CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="52" displayName="Query_Sustainable_Financial" headerRowDxfId="53" id="8" insertRowShift="1" name="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="45" displayName="Query_Sustainable_Financial" headerRowDxfId="46" id="8" insertRowShift="1" name="Query_Sustainable_Financial" ref="V1:W14" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="V1:W14"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="51" id="1" name="Sustainable Financial Business" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="50" id="2" name="LBPP Code" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="44" id="1" name="Sustainable Financial Business" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="43" id="2" name="LBPP Code" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="48" displayName="Query_debtor_group_slik" headerRowDxfId="49" id="9" insertRowShift="1" name="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" dataDxfId="41" displayName="Query_debtor_group_slik" headerRowDxfId="42" id="9" insertRowShift="1" name="Query_debtor_group_slik" ref="Y1:Z193" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="Y1:Z193"/>
   <tableColumns count="2">
-    <tableColumn dataDxfId="47" id="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" uniqueName="1"/>
-    <tableColumn dataDxfId="46" id="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" uniqueName="2"/>
+    <tableColumn dataDxfId="40" id="1" name="DEBTOR GROUP SLIK" queryTableFieldId="1" uniqueName="1"/>
+    <tableColumn dataDxfId="39" id="2" name="DEBTOR GROUP SLIK CODE" queryTableFieldId="2" uniqueName="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
@@ -15094,17 +15097,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B25:XFD26">
-    <cfRule dxfId="6" priority="3" type="expression">
+    <cfRule dxfId="77" priority="3" type="expression">
       <formula>AND(B$24&lt;&gt;"Foreigner",B$24&lt;&gt;"",B$24&lt;&gt;"Nationality")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:XFD29">
-    <cfRule dxfId="5" priority="2" type="expression">
+    <cfRule dxfId="76" priority="2" type="expression">
       <formula>B$18="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule dxfId="4" priority="1" type="expression">
+    <cfRule dxfId="75" priority="1" type="expression">
       <formula>A$19="No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15636,12 +15639,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B14:XFD20">
-    <cfRule dxfId="3" priority="2" type="expression">
+    <cfRule dxfId="74" priority="2" type="expression">
       <formula>AND(B$13&lt;&gt;"",B$13&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:A20">
-    <cfRule dxfId="2" priority="1" type="expression">
+    <cfRule dxfId="73" priority="1" type="expression">
       <formula>AND(A$13&lt;&gt;"",A$13&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15744,20 +15747,20 @@
     <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="11" s="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    <row customFormat="1" r="11" s="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>4214</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -15773,20 +15776,20 @@
         <v>4174</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+    <row customFormat="1" r="13" s="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
         <v>3562</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
@@ -17177,20 +17180,20 @@
         <v>323</v>
       </c>
     </row>
-    <row customFormat="1" r="99" s="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="55" t="s">
+    <row customFormat="1" r="99" s="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="57" t="s">
         <v>3566</v>
       </c>
-      <c r="B99" s="56"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="56"/>
-      <c r="K99" s="57"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="59"/>
     </row>
     <row customFormat="1" r="100" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
@@ -17221,20 +17224,20 @@
       <c r="D104" s="37"/>
       <c r="E104" s="37"/>
     </row>
-    <row customFormat="1" r="105" s="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="55" t="s">
+    <row customFormat="1" r="105" s="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="57" t="s">
         <v>3567</v>
       </c>
-      <c r="B105" s="56"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="56"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="57"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="58"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="59"/>
     </row>
     <row customFormat="1" r="106" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
@@ -17936,12 +17939,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B27:E39">
-    <cfRule dxfId="1" priority="2" type="expression">
+    <cfRule dxfId="72" priority="2" type="expression">
       <formula>AND(B$13&lt;&gt;"",B$13&lt;&gt;"Copy Address From")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E16">
-    <cfRule dxfId="0" priority="1" type="expression">
+    <cfRule dxfId="71" priority="1" type="expression">
       <formula>B$13="LookUp"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17981,8 +17984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17995,7 +17998,7 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4068</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -18023,7 +18026,11 @@
         <v>4160</v>
       </c>
       <c r="B4" s="1">
-        <f>COUNTIFS($A$12:$A$30,"*$*",B12:B30,"")</f>
+        <f>IF(LEN(B12) &gt;0,COUNTIFS($A$12:$A$21,"*$*",B12:B21,""),0)+IF(LEN(B24)&gt;0,COUNTIFS($A$23:$A$30,"*$*",B23:B30,""),0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>IF(LEN(C12) &gt;0,COUNTIFS($A$12:$A$21,"*$*",C12:C21,""),0)+IF(LEN(C24)&gt;0,COUNTIFS($A$23:$A$30,"*$*",C23:C30,""),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18032,21 +18039,33 @@
     <row customFormat="1" r="7" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="8" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="11" s="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>'1.CustomerDetail'!B12</f>
+        <v>BLI GUNG</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>'1.CustomerDetail'!B12</f>
+        <v>BLI GUNG</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>3568</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
@@ -18208,20 +18227,20 @@
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
     </row>
-    <row customFormat="1" r="20" s="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+    <row customFormat="1" r="20" s="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
         <v>3569</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
     </row>
     <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -18246,20 +18265,20 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row customFormat="1" r="22" s="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+    <row customFormat="1" r="22" s="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
         <v>3570</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
     </row>
     <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
@@ -18406,8 +18425,8 @@
       <c r="A30" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="B30" s="12">
-        <v>5000000000</v>
+      <c r="B30" s="12" t="s">
+        <v>4223</v>
       </c>
       <c r="C30" s="12">
         <v>5000000001</v>
@@ -18425,18 +18444,18 @@
     <mergeCell ref="A20:XFD20"/>
     <mergeCell ref="A22:XFD22"/>
   </mergeCells>
-  <dataValidations count="13">
+  <dataValidations count="11">
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G28:K30 F28:F29" type="list">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F14:K14" type="list">
       <formula1>"Business, Online Shop, Salary, Stock Trading"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B13:E13" type="whole">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B12:E13" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+27</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B16:E16" type="whole">
+    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B15:E16" type="whole">
       <formula1>0</formula1>
       <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
@@ -18451,16 +18470,8 @@
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B24:E24" type="list">
       <formula1>ListBank</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B12:E12" type="whole">
-      <formula1>0</formula1>
-      <formula2>9.99999999999999E+27</formula2>
-    </dataValidation>
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B14:E14" type="list">
       <formula1>"Business, Online Shop, Salary, Stock Trading"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B15:E15" type="whole">
-      <formula1>0</formula1>
-      <formula2>9.99999999999999E+22</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B18:E18"/>
     <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B19:E19" type="list">
@@ -18480,7 +18491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -18535,11 +18546,11 @@
     <row customFormat="1" r="11" s="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="48"/>
     </row>
-    <row customFormat="1" r="12" s="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+    <row customFormat="1" r="12" s="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
         <v>4218</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="56" t="s">
         <v>6</v>
       </c>
     </row>
@@ -18652,14 +18663,14 @@
     <row customFormat="1" r="8" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="1" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="11" s="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    <row customFormat="1" r="11" s="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>3571</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
     </row>
     <row customFormat="1" r="12" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">

--- a/Excel/2.1.1 CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/2.1.1 CustomerDataCompletion-Personal - Customer.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="4224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="4232">
   <si>
     <t>Full Name</t>
   </si>
@@ -13078,7 +13078,31 @@
     <t>2;2</t>
   </si>
   <si>
-    <t>5000000;1000000</t>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>January;February</t>
+  </si>
+  <si>
+    <t>2021;2022</t>
+  </si>
+  <si>
+    <t>Debit Transaction Account</t>
+  </si>
+  <si>
+    <t>Credit Transaction Account</t>
+  </si>
+  <si>
+    <t>120000;2000000</t>
   </si>
 </sst>
 </file>
@@ -17982,16 +18006,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="2" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -18001,8 +18026,8 @@
       <c r="B1" t="s">
         <v>4068</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3289</v>
+      <c r="C1" t="s">
+        <v>4068</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3289</v>
@@ -18425,8 +18450,8 @@
       <c r="A30" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>4223</v>
+      <c r="B30" s="12">
+        <v>5000000</v>
       </c>
       <c r="C30" s="12">
         <v>5000000001</v>
@@ -18436,6 +18461,54 @@
       </c>
       <c r="E30" s="12">
         <v>5000000003</v>
+      </c>
+    </row>
+    <row customFormat="1" r="31" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row customFormat="1" r="33" s="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row customFormat="1" r="34" s="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row customFormat="1" r="35" s="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row customFormat="1" r="36" s="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>4231</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/2.1.1 CustomerDataCompletion-Personal - Customer.xlsx
+++ b/Excel/2.1.1 CustomerDataCompletion-Personal - Customer.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UFNEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeremy.andreas\git\NAP-CF4W-UF-11END\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="4" firstSheet="1" tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView tabRatio="644" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="1.CustomerDetail" r:id="rId1" sheetId="1"/>
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4662" uniqueCount="4232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4697" uniqueCount="4231">
   <si>
     <t>Full Name</t>
   </si>
@@ -12613,496 +12613,493 @@
     <t>NO</t>
   </si>
   <si>
+    <t>KEDOYA SELATAN</t>
+  </si>
+  <si>
+    <t>Professional Job Data</t>
+  </si>
+  <si>
+    <t>Industry Code</t>
+  </si>
+  <si>
+    <t>Industry Type</t>
+  </si>
+  <si>
+    <t>Sarana Kehutanan</t>
+  </si>
+  <si>
+    <t>Professional No</t>
+  </si>
+  <si>
+    <t>Strat Working Date</t>
+  </si>
+  <si>
+    <t>Non-Professional Job Data</t>
+  </si>
+  <si>
+    <t>Small Medium Enterprise  Job Data</t>
+  </si>
+  <si>
+    <t>PT HNDA</t>
+  </si>
+  <si>
+    <t>PERTANIAN LAINNYA</t>
+  </si>
+  <si>
+    <t>Company Scale</t>
+  </si>
+  <si>
+    <t>Start Working Date</t>
+  </si>
+  <si>
+    <t>01/01/1970</t>
+  </si>
+  <si>
+    <t>Investment Type</t>
+  </si>
+  <si>
+    <t>JL POLTAN 1</t>
+  </si>
+  <si>
+    <t>NYENGSERET</t>
+  </si>
+  <si>
+    <t>ASTANA ANYAR</t>
+  </si>
+  <si>
+    <t>BANDUNG</t>
+  </si>
+  <si>
+    <t>JL. MOSAWO 22</t>
+  </si>
+  <si>
+    <t>Jalan Biru No 3</t>
+  </si>
+  <si>
+    <t>Spouse Monthly Income</t>
+  </si>
+  <si>
+    <t>Is Join Income</t>
+  </si>
+  <si>
+    <t>BLI GUNG</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>VINO VINO</t>
+  </si>
+  <si>
+    <t>21836123697</t>
+  </si>
+  <si>
+    <t>Input By</t>
+  </si>
+  <si>
+    <t>LookUp</t>
+  </si>
+  <si>
+    <t>TZUYU</t>
+  </si>
+  <si>
+    <t>Id Type</t>
+  </si>
+  <si>
+    <t>ID No</t>
+  </si>
+  <si>
+    <t>ID Expired Date</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Birth Place</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>Mobile Phone 1</t>
+  </si>
+  <si>
+    <t>Mobile Phone 2</t>
+  </si>
+  <si>
+    <t>ID TYPE</t>
+  </si>
+  <si>
+    <t>E-KTP</t>
+  </si>
+  <si>
+    <t>KITAS</t>
+  </si>
+  <si>
+    <t>NPWP</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>AKTA</t>
+  </si>
+  <si>
+    <t>TEST123</t>
+  </si>
+  <si>
+    <t>Description For KTP</t>
+  </si>
+  <si>
+    <t>Description For AAA</t>
+  </si>
+  <si>
+    <t>Description for ASA</t>
+  </si>
+  <si>
+    <t>Description for ABC</t>
+  </si>
+  <si>
+    <t>Description for BBB</t>
+  </si>
+  <si>
+    <t>CAT IS A CAT</t>
+  </si>
+  <si>
+    <t>CAT CAT</t>
+  </si>
+  <si>
+    <t>KARTU TANDA MAHASISWA</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Contact Person Name (Input Data)</t>
+  </si>
+  <si>
+    <t>Reason Failed</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>JL POLTAN 2</t>
+  </si>
+  <si>
+    <t>JL POLTAN 3</t>
+  </si>
+  <si>
+    <t>JL POLTAN 4</t>
+  </si>
+  <si>
+    <t>Jalan Biru No 4</t>
+  </si>
+  <si>
+    <t>Jalan Biru No 5</t>
+  </si>
+  <si>
+    <t>Jalan Biru No 6</t>
+  </si>
+  <si>
+    <t>JL. MOSAWO 23</t>
+  </si>
+  <si>
+    <t>JL. MOSAWO 24</t>
+  </si>
+  <si>
+    <t>JL. MOSAWO 25</t>
+  </si>
+  <si>
+    <t>01/01/1971</t>
+  </si>
+  <si>
+    <t>01/01/1972</t>
+  </si>
+  <si>
+    <t>01/01/1973</t>
+  </si>
+  <si>
+    <t>Pertanian Padi 3</t>
+  </si>
+  <si>
+    <t>Pertanian Padi 4</t>
+  </si>
+  <si>
+    <t>Pertanian Padi 5</t>
+  </si>
+  <si>
+    <t>$Rest In Peace</t>
+  </si>
+  <si>
+    <t>$VIP</t>
+  </si>
+  <si>
+    <t>$Affiliation With Multifinance</t>
+  </si>
+  <si>
+    <t>$Salutation</t>
+  </si>
+  <si>
+    <t>$Nationality</t>
+  </si>
+  <si>
+    <t>$Country Code</t>
+  </si>
+  <si>
+    <t>$Country</t>
+  </si>
+  <si>
+    <t>$Education</t>
+  </si>
+  <si>
+    <t>$Religion</t>
+  </si>
+  <si>
+    <t>$VIP Notes</t>
+  </si>
+  <si>
+    <t>Is Mandatory Complete</t>
+  </si>
+  <si>
+    <t>$Address Type</t>
+  </si>
+  <si>
+    <t>$Address</t>
+  </si>
+  <si>
+    <t>$RT</t>
+  </si>
+  <si>
+    <t>$RW</t>
+  </si>
+  <si>
+    <t>$Zip Code</t>
+  </si>
+  <si>
+    <t>$Kecamatan</t>
+  </si>
+  <si>
+    <t>$Kelurahan</t>
+  </si>
+  <si>
+    <t>$City</t>
+  </si>
+  <si>
+    <t>$Phone 1 Area</t>
+  </si>
+  <si>
+    <t>$Phone 1 Number</t>
+  </si>
+  <si>
+    <t>$OwnerShip</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>Non Professional</t>
+  </si>
+  <si>
+    <t>$Profession Code</t>
+  </si>
+  <si>
+    <t>$Profession Name</t>
+  </si>
+  <si>
+    <t>$Job Position</t>
+  </si>
+  <si>
+    <t>$Job Status</t>
+  </si>
+  <si>
+    <t>$Company Name</t>
+  </si>
+  <si>
+    <t>$Industry type Code</t>
+  </si>
+  <si>
+    <t>$Industry type Name</t>
+  </si>
+  <si>
+    <t>$Start Working</t>
+  </si>
+  <si>
+    <t>$Job Title Name</t>
+  </si>
+  <si>
+    <t>$Monthly Income</t>
+  </si>
+  <si>
+    <t>$Date as Of</t>
+  </si>
+  <si>
+    <t>$AssetType</t>
+  </si>
+  <si>
+    <t>$AssetValue</t>
+  </si>
+  <si>
+    <t>$AssetQuantity</t>
+  </si>
+  <si>
+    <t>$DebtorGroupCode</t>
+  </si>
+  <si>
+    <t>$Debtor Group</t>
+  </si>
+  <si>
+    <t>$DebtorBusinessScaleCode</t>
+  </si>
+  <si>
+    <t>$Debtor Business Scale</t>
+  </si>
+  <si>
+    <t>$CounterPart Code</t>
+  </si>
+  <si>
+    <t>$CounterPart Category</t>
+  </si>
+  <si>
+    <t>$Sustainable Code</t>
+  </si>
+  <si>
+    <t>$Sustainable Financial Business</t>
+  </si>
+  <si>
+    <t>$Debtor Group SLIK Code</t>
+  </si>
+  <si>
+    <t>$Debtor Group SLIK</t>
+  </si>
+  <si>
+    <t>$Affiliate with Multi Finance SLIK Code</t>
+  </si>
+  <si>
+    <t>$Affiliate with Multi Finance SLIK</t>
+  </si>
+  <si>
+    <t>$Department AML Code</t>
+  </si>
+  <si>
+    <t>$Department AML</t>
+  </si>
+  <si>
+    <t>$CSP/USL SOURCE AML Code</t>
+  </si>
+  <si>
+    <t>$CSP/USL SOURCE AML</t>
+  </si>
+  <si>
+    <t>$Payment Type AML Code</t>
+  </si>
+  <si>
+    <t>$Payment Type AML</t>
+  </si>
+  <si>
+    <t>$KYC Report AML</t>
+  </si>
+  <si>
+    <t>$Authority AML Code</t>
+  </si>
+  <si>
+    <t>$Attend Date</t>
+  </si>
+  <si>
+    <t>$Business Source AML Code</t>
+  </si>
+  <si>
+    <t>$Business Source AML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$Business Period AML </t>
+  </si>
+  <si>
+    <t>$Building Code</t>
+  </si>
+  <si>
+    <t>Customer Model</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Add Asset</t>
+  </si>
+  <si>
+    <t>Motor;Mobil</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>100000;100000</t>
+  </si>
+  <si>
+    <t>2;2</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>January;February</t>
+  </si>
+  <si>
+    <t>2021;2022</t>
+  </si>
+  <si>
+    <t>Debit Transaction Account</t>
+  </si>
+  <si>
+    <t>Credit Transaction Account</t>
+  </si>
+  <si>
+    <t>120000;2000000</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ANYA</t>
+  </si>
+  <si>
     <t>SUCCESS</t>
   </si>
   <si>
-    <t>KEDOYA SELATAN</t>
-  </si>
-  <si>
-    <t>Professional Job Data</t>
-  </si>
-  <si>
-    <t>Industry Code</t>
-  </si>
-  <si>
-    <t>Industry Type</t>
-  </si>
-  <si>
-    <t>Sarana Kehutanan</t>
-  </si>
-  <si>
-    <t>Professional No</t>
-  </si>
-  <si>
-    <t>Strat Working Date</t>
-  </si>
-  <si>
-    <t>Non-Professional Job Data</t>
-  </si>
-  <si>
-    <t>Small Medium Enterprise  Job Data</t>
-  </si>
-  <si>
-    <t>PT HNDA</t>
-  </si>
-  <si>
-    <t>PERTANIAN LAINNYA</t>
-  </si>
-  <si>
-    <t>Company Scale</t>
-  </si>
-  <si>
-    <t>Start Working Date</t>
-  </si>
-  <si>
-    <t>01/01/1970</t>
-  </si>
-  <si>
-    <t>Investment Type</t>
-  </si>
-  <si>
-    <t>JL POLTAN 1</t>
-  </si>
-  <si>
-    <t>NYENGSERET</t>
-  </si>
-  <si>
-    <t>ASTANA ANYAR</t>
-  </si>
-  <si>
-    <t>BANDUNG</t>
-  </si>
-  <si>
-    <t>JL. MOSAWO 22</t>
-  </si>
-  <si>
-    <t>Jalan Biru No 3</t>
-  </si>
-  <si>
-    <t>Spouse Monthly Income</t>
-  </si>
-  <si>
-    <t>Is Join Income</t>
-  </si>
-  <si>
-    <t>BLI GUNG</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>VINO VINO</t>
-  </si>
-  <si>
-    <t>21836123697</t>
-  </si>
-  <si>
-    <t>Input By</t>
-  </si>
-  <si>
-    <t>LookUp</t>
-  </si>
-  <si>
-    <t>TZUYU</t>
-  </si>
-  <si>
-    <t>Id Type</t>
-  </si>
-  <si>
-    <t>ID No</t>
-  </si>
-  <si>
-    <t>ID Expired Date</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Birth Place</t>
-  </si>
-  <si>
-    <t>Birth Date</t>
-  </si>
-  <si>
-    <t>Mobile Phone 1</t>
-  </si>
-  <si>
-    <t>Mobile Phone 2</t>
-  </si>
-  <si>
-    <t>ID TYPE</t>
-  </si>
-  <si>
-    <t>E-KTP</t>
-  </si>
-  <si>
-    <t>KITAS</t>
-  </si>
-  <si>
-    <t>NPWP</t>
-  </si>
-  <si>
-    <t>SIM</t>
-  </si>
-  <si>
-    <t>AKTA</t>
-  </si>
-  <si>
-    <t>TEST123</t>
-  </si>
-  <si>
-    <t>Description For KTP</t>
-  </si>
-  <si>
-    <t>Description For AAA</t>
-  </si>
-  <si>
-    <t>Description for ASA</t>
-  </si>
-  <si>
-    <t>Description for ABC</t>
-  </si>
-  <si>
-    <t>Description for BBB</t>
-  </si>
-  <si>
-    <t>CAT IS A CAT</t>
-  </si>
-  <si>
-    <t>CAT CAT</t>
-  </si>
-  <si>
-    <t>KARTU TANDA MAHASISWA</t>
-  </si>
-  <si>
-    <t>GENDER</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Contact Person Name (Input Data)</t>
-  </si>
-  <si>
     <t>WARNING</t>
-  </si>
-  <si>
-    <t>Reason Failed</t>
-  </si>
-  <si>
-    <t>Objective</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>JL POLTAN 2</t>
-  </si>
-  <si>
-    <t>JL POLTAN 3</t>
-  </si>
-  <si>
-    <t>JL POLTAN 4</t>
-  </si>
-  <si>
-    <t>Jalan Biru No 4</t>
-  </si>
-  <si>
-    <t>Jalan Biru No 5</t>
-  </si>
-  <si>
-    <t>Jalan Biru No 6</t>
-  </si>
-  <si>
-    <t>JL. MOSAWO 23</t>
-  </si>
-  <si>
-    <t>JL. MOSAWO 24</t>
-  </si>
-  <si>
-    <t>JL. MOSAWO 25</t>
-  </si>
-  <si>
-    <t>01/01/1971</t>
-  </si>
-  <si>
-    <t>01/01/1972</t>
-  </si>
-  <si>
-    <t>01/01/1973</t>
-  </si>
-  <si>
-    <t>Pertanian Padi 3</t>
-  </si>
-  <si>
-    <t>Pertanian Padi 4</t>
-  </si>
-  <si>
-    <t>Pertanian Padi 5</t>
-  </si>
-  <si>
-    <t>KENNEDY</t>
-  </si>
-  <si>
-    <t>$Rest In Peace</t>
-  </si>
-  <si>
-    <t>$VIP</t>
-  </si>
-  <si>
-    <t>$Affiliation With Multifinance</t>
-  </si>
-  <si>
-    <t>$Salutation</t>
-  </si>
-  <si>
-    <t>$Nationality</t>
-  </si>
-  <si>
-    <t>$Country Code</t>
-  </si>
-  <si>
-    <t>$Country</t>
-  </si>
-  <si>
-    <t>$Education</t>
-  </si>
-  <si>
-    <t>$Religion</t>
-  </si>
-  <si>
-    <t>$VIP Notes</t>
-  </si>
-  <si>
-    <t>Is Mandatory Complete</t>
-  </si>
-  <si>
-    <t>$Address Type</t>
-  </si>
-  <si>
-    <t>$Address</t>
-  </si>
-  <si>
-    <t>$RT</t>
-  </si>
-  <si>
-    <t>$RW</t>
-  </si>
-  <si>
-    <t>$Zip Code</t>
-  </si>
-  <si>
-    <t>$Kecamatan</t>
-  </si>
-  <si>
-    <t>$Kelurahan</t>
-  </si>
-  <si>
-    <t>$City</t>
-  </si>
-  <si>
-    <t>$Phone 1 Area</t>
-  </si>
-  <si>
-    <t>$Phone 1 Number</t>
-  </si>
-  <si>
-    <t>$OwnerShip</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>Professional</t>
-  </si>
-  <si>
-    <t>Non Professional</t>
-  </si>
-  <si>
-    <t>$Profession Code</t>
-  </si>
-  <si>
-    <t>$Profession Name</t>
-  </si>
-  <si>
-    <t>$Job Position</t>
-  </si>
-  <si>
-    <t>$Job Status</t>
-  </si>
-  <si>
-    <t>$Company Name</t>
-  </si>
-  <si>
-    <t>$Industry type Code</t>
-  </si>
-  <si>
-    <t>$Industry type Name</t>
-  </si>
-  <si>
-    <t>$Start Working</t>
-  </si>
-  <si>
-    <t>$Job Title Name</t>
-  </si>
-  <si>
-    <t>$Monthly Income</t>
-  </si>
-  <si>
-    <t>$Date as Of</t>
-  </si>
-  <si>
-    <t>$AssetType</t>
-  </si>
-  <si>
-    <t>$AssetValue</t>
-  </si>
-  <si>
-    <t>$AssetQuantity</t>
-  </si>
-  <si>
-    <t>$DebtorGroupCode</t>
-  </si>
-  <si>
-    <t>$Debtor Group</t>
-  </si>
-  <si>
-    <t>$DebtorBusinessScaleCode</t>
-  </si>
-  <si>
-    <t>$Debtor Business Scale</t>
-  </si>
-  <si>
-    <t>$CounterPart Code</t>
-  </si>
-  <si>
-    <t>$CounterPart Category</t>
-  </si>
-  <si>
-    <t>$Sustainable Code</t>
-  </si>
-  <si>
-    <t>$Sustainable Financial Business</t>
-  </si>
-  <si>
-    <t>$Debtor Group SLIK Code</t>
-  </si>
-  <si>
-    <t>$Debtor Group SLIK</t>
-  </si>
-  <si>
-    <t>$Affiliate with Multi Finance SLIK Code</t>
-  </si>
-  <si>
-    <t>$Affiliate with Multi Finance SLIK</t>
-  </si>
-  <si>
-    <t>$Department AML Code</t>
-  </si>
-  <si>
-    <t>$Department AML</t>
-  </si>
-  <si>
-    <t>$CSP/USL SOURCE AML Code</t>
-  </si>
-  <si>
-    <t>$CSP/USL SOURCE AML</t>
-  </si>
-  <si>
-    <t>$Payment Type AML Code</t>
-  </si>
-  <si>
-    <t>$Payment Type AML</t>
-  </si>
-  <si>
-    <t>$KYC Report AML</t>
-  </si>
-  <si>
-    <t>$Authority AML Code</t>
-  </si>
-  <si>
-    <t>$Attend Date</t>
-  </si>
-  <si>
-    <t>$Business Source AML Code</t>
-  </si>
-  <si>
-    <t>$Business Source AML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$Business Period AML </t>
-  </si>
-  <si>
-    <t>$Building Code</t>
-  </si>
-  <si>
-    <t>Customer Model</t>
-  </si>
-  <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>Button Save Tidak Berfungsi</t>
-  </si>
-  <si>
-    <t>Add Asset</t>
-  </si>
-  <si>
-    <t>Motor;Mobil</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>100000;100000</t>
-  </si>
-  <si>
-    <t>2;2</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Debit</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>January;February</t>
-  </si>
-  <si>
-    <t>2021;2022</t>
-  </si>
-  <si>
-    <t>Debit Transaction Account</t>
-  </si>
-  <si>
-    <t>Credit Transaction Account</t>
-  </si>
-  <si>
-    <t>120000;2000000</t>
   </si>
 </sst>
 </file>
@@ -14788,8 +14785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14805,7 +14802,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>4068</v>
+        <v>4229</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3289</v>
@@ -14819,20 +14816,35 @@
     </row>
     <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4129</v>
-      </c>
-      <c r="B2"/>
+        <v>4127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4227</v>
+      </c>
     </row>
     <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4149</v>
-      </c>
+        <v>4128</v>
+      </c>
+      <c r="B3"/>
     </row>
     <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4"/>
+      <c r="A4" s="1" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B4" s="1">
+        <f>COUNTIFS($A$12:$A$28, "*$*",B12:B28,"")+IF(B18="Yes",COUNTIFS($A$29, "*$*",B29,""),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row customFormat="1" r="5" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5"/>
@@ -14859,17 +14871,17 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4092</v>
+      <c r="B12" t="s">
+        <v>4228</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4092</v>
+        <v>4091</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -14928,7 +14940,7 @@
     </row>
     <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>4150</v>
+        <v>4147</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>5</v>
@@ -14945,7 +14957,7 @@
     </row>
     <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>4151</v>
+        <v>4148</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>5</v>
@@ -14962,7 +14974,7 @@
     </row>
     <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>4152</v>
+        <v>4149</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
@@ -14984,7 +14996,7 @@
     </row>
     <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>4153</v>
+        <v>4150</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -15011,7 +15023,7 @@
     </row>
     <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>4154</v>
+        <v>4151</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>4058</v>
@@ -15028,7 +15040,7 @@
     </row>
     <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>4155</v>
+        <v>4152</v>
       </c>
       <c r="B25" s="1" t="str">
         <f>VLOOKUP(B26,Master!$BA:$BB,2,FALSE)</f>
@@ -15049,7 +15061,7 @@
     </row>
     <row customFormat="1" r="26" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>4156</v>
+        <v>4153</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3576</v>
@@ -15072,41 +15084,41 @@
     </row>
     <row customFormat="1" r="27" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>4157</v>
+        <v>4154</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4094</v>
+        <v>4093</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4130</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>4131</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4132</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>4133</v>
       </c>
     </row>
     <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>4158</v>
+        <v>4155</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4093</v>
+        <v>4092</v>
       </c>
     </row>
     <row customFormat="1" r="29" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>4159</v>
+        <v>4156</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -15196,7 +15208,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15210,10 +15222,10 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>4216</v>
+        <v>4229</v>
       </c>
       <c r="C1" t="s">
-        <v>4216</v>
+        <v>3289</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3289</v>
@@ -15224,23 +15236,29 @@
     </row>
     <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4129</v>
+        <v>4127</v>
       </c>
       <c r="B2" t="s">
-        <v>4217</v>
+        <v>4227</v>
       </c>
       <c r="C2" t="s">
-        <v>4217</v>
+        <v>4227</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4227</v>
       </c>
     </row>
     <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4160</v>
+        <v>4157</v>
       </c>
       <c r="B4" s="1">
         <f>IF(B13="",COUNTIFS($A$12:$A$32, "*$*",B12:B32,""),0)</f>
@@ -15260,15 +15278,11 @@
     </row>
     <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4215</v>
+        <v>4212</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>'1.CustomerDetail'!B12</f>
-        <v>BLI GUNG</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>'1.CustomerDetail'!B12</f>
-        <v>BLI GUNG</v>
+        <v>ANYA</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -15276,7 +15290,7 @@
     </row>
     <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>4161</v>
+        <v>4158</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -15316,19 +15330,19 @@
     </row>
     <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>4162</v>
+        <v>4159</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>4084</v>
+        <v>4083</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>4132</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4133</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>4134</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4135</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>4136</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -15339,7 +15353,7 @@
     </row>
     <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>4163</v>
+        <v>4160</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -15362,7 +15376,7 @@
     </row>
     <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>4164</v>
+        <v>4161</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -15385,7 +15399,7 @@
     </row>
     <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>4165</v>
+        <v>4162</v>
       </c>
       <c r="B17" s="2">
         <v>40242</v>
@@ -15408,19 +15422,19 @@
     </row>
     <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>4166</v>
+        <v>4163</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>4086</v>
+        <v>4085</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -15431,19 +15445,19 @@
     </row>
     <row customFormat="1" r="19" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>4167</v>
+        <v>4164</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>4085</v>
+        <v>4084</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -15454,19 +15468,19 @@
     </row>
     <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>4168</v>
+        <v>4165</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -15477,7 +15491,7 @@
     </row>
     <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>4169</v>
+        <v>4166</v>
       </c>
       <c r="B21" s="2">
         <v>4245</v>
@@ -15494,7 +15508,7 @@
     </row>
     <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>4170</v>
+        <v>4167</v>
       </c>
       <c r="B22" s="2">
         <v>3525254</v>
@@ -15646,7 +15660,7 @@
     </row>
     <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>4171</v>
+        <v>4168</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3002</v>
@@ -15733,8 +15747,8 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4128</v>
+      <c r="B1" t="s">
+        <v>4229</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3289</v>
@@ -15748,17 +15762,29 @@
     </row>
     <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4129</v>
+        <v>4127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4227</v>
       </c>
     </row>
     <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4160</v>
+        <v>4157</v>
       </c>
       <c r="B4" s="1">
         <f>IF(B12="Employee",COUNTIFS($A$14:$A$26,"*$*",B14:B26,"")+COUNTIFS($A$55:$A$61,"*$*",B55:B61,""),IF(B12="Professional",COUNTIFS($A$28:$A$36,"*$*",B28:B36,"")+COUNTIFS($A$55:$A$61,"*$*",B55:B61,""),IF(B12="Non Professional",COUNTIFS($A$38:$A$40,"*$*",B38:B40,"")+COUNTIFS($A$55:$A$61,"*$*",B55:B61,""),IF(B12="Employee",COUNTIFS($A$42:$A$53,"*$*",B42:B53,"")+COUNTIFS($A$55:$A$61,"*$*",B55:B61,"")))))</f>
@@ -15773,7 +15799,7 @@
     <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="11" s="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>4214</v>
+        <v>4211</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -15788,16 +15814,16 @@
     </row>
     <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>4214</v>
+        <v>4211</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4172</v>
+        <v>4169</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4173</v>
+        <v>4170</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4174</v>
+        <v>4171</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -15817,7 +15843,7 @@
     </row>
     <row customFormat="1" r="14" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>4175</v>
+        <v>4172</v>
       </c>
       <c r="B14" s="3" t="str">
         <f>VLOOKUP(B15,Master!$A$1:$B$95,2,FALSE)</f>
@@ -15844,7 +15870,7 @@
     </row>
     <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>4176</v>
+        <v>4173</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>74</v>
@@ -15867,7 +15893,7 @@
     </row>
     <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>4177</v>
+        <v>4174</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>28</v>
@@ -15890,7 +15916,7 @@
     </row>
     <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>4178</v>
+        <v>4175</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4066</v>
@@ -15947,7 +15973,7 @@
     </row>
     <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>4179</v>
+        <v>4176</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>32</v>
@@ -15964,7 +15990,7 @@
     </row>
     <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>4180</v>
+        <v>4177</v>
       </c>
       <c r="B21" s="1" t="str">
         <f>VLOOKUP(B22,Master!$AW:$AX,2,FALSE)</f>
@@ -15985,19 +16011,19 @@
     </row>
     <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>4181</v>
+        <v>4178</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3324</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>4144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4145</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>4146</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>4147</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>4148</v>
       </c>
     </row>
     <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -16007,7 +16033,7 @@
     </row>
     <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>4182</v>
+        <v>4179</v>
       </c>
       <c r="B24" s="36">
         <v>43957</v>
@@ -16060,7 +16086,7 @@
     </row>
     <row customFormat="1" r="27" s="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>4070</v>
+        <v>4069</v>
       </c>
     </row>
     <row customFormat="1" r="28" s="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -16125,7 +16151,7 @@
     </row>
     <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="B32" s="1" t="str">
         <f>VLOOKUP(B33,Master!$AW:$AX,2,FALSE)</f>
@@ -16146,24 +16172,24 @@
     </row>
     <row customFormat="1" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>4072</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>4073</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>4073</v>
+        <v>4072</v>
       </c>
     </row>
     <row customFormat="1" r="34" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>4074</v>
+        <v>4073</v>
       </c>
       <c r="B34" s="1">
         <v>1823612693</v>
@@ -16180,7 +16206,7 @@
     </row>
     <row customFormat="1" r="35" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>4075</v>
+        <v>4074</v>
       </c>
       <c r="B35" s="37">
         <v>44056</v>
@@ -16214,12 +16240,12 @@
     </row>
     <row customFormat="1" r="37" s="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="50" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
     </row>
     <row customFormat="1" r="38" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>4175</v>
+        <v>4172</v>
       </c>
       <c r="B38" s="3" t="str">
         <f>VLOOKUP(B39,Master!$A$1:$B$95,2,FALSE)</f>
@@ -16240,7 +16266,7 @@
     </row>
     <row customFormat="1" r="39" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>4176</v>
+        <v>4173</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>146</v>
@@ -16257,7 +16283,7 @@
     </row>
     <row customFormat="1" r="40" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>4183</v>
+        <v>4180</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>146</v>
@@ -16274,7 +16300,7 @@
     </row>
     <row customFormat="1" r="41" s="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>4077</v>
+        <v>4076</v>
       </c>
     </row>
     <row customFormat="1" r="42" s="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -16354,21 +16380,21 @@
         <v>241</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4078</v>
+        <v>4077</v>
       </c>
     </row>
     <row customFormat="1" r="47" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>4071</v>
+        <v>4070</v>
       </c>
       <c r="B47" s="1" t="str">
         <f>VLOOKUP(B48,Master!$AW:$AX,2,FALSE)</f>
@@ -16389,41 +16415,41 @@
     </row>
     <row customFormat="1" r="48" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>4072</v>
+        <v>4071</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>4079</v>
+        <v>4078</v>
       </c>
     </row>
     <row customFormat="1" r="49" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>4080</v>
+        <v>4079</v>
       </c>
     </row>
     <row customFormat="1" r="50" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="B50" s="36" t="s">
         <v>4081</v>
       </c>
-      <c r="B50" s="36" t="s">
-        <v>4082</v>
-      </c>
       <c r="C50" s="36" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>4142</v>
+      </c>
+      <c r="E50" s="36" t="s">
         <v>4143</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>4144</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>4145</v>
       </c>
     </row>
     <row customFormat="1" r="51" s="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -16462,7 +16488,7 @@
     </row>
     <row customFormat="1" r="53" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>4083</v>
+        <v>4082</v>
       </c>
     </row>
     <row customFormat="1" r="54" s="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -16482,24 +16508,24 @@
     </row>
     <row customFormat="1" r="55" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
-        <v>4162</v>
+        <v>4159</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4088</v>
+        <v>4087</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>4138</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>4139</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>4140</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>4141</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>4142</v>
       </c>
     </row>
     <row customFormat="1" r="56" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
-        <v>4163</v>
+        <v>4160</v>
       </c>
       <c r="B56" s="2">
         <v>11</v>
@@ -16522,7 +16548,7 @@
     </row>
     <row customFormat="1" r="57" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
-        <v>4164</v>
+        <v>4161</v>
       </c>
       <c r="B57" s="2">
         <v>12</v>
@@ -16545,7 +16571,7 @@
     </row>
     <row customFormat="1" r="58" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
-        <v>4165</v>
+        <v>4162</v>
       </c>
       <c r="B58" s="2">
         <v>11520</v>
@@ -16568,19 +16594,19 @@
     </row>
     <row customFormat="1" r="59" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
-        <v>4167</v>
+        <v>4164</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>4069</v>
+        <v>4068</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -16591,7 +16617,7 @@
     </row>
     <row customFormat="1" r="60" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
-        <v>4166</v>
+        <v>4163</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>19</v>
@@ -16614,7 +16640,7 @@
     </row>
     <row customFormat="1" r="61" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
-        <v>4168</v>
+        <v>4165</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>249</v>
@@ -16869,16 +16895,16 @@
         <v>304</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>4135</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>4136</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>4137</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>4138</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>4139</v>
       </c>
     </row>
     <row customFormat="1" r="80" s="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -17596,11 +17622,11 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4068</v>
+      <c r="B1" t="s">
+        <v>4229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4068</v>
+        <v>3289</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3289</v>
@@ -17611,17 +17637,29 @@
     </row>
     <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4129</v>
+        <v>4127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4227</v>
       </c>
     </row>
     <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4160</v>
+        <v>4157</v>
       </c>
       <c r="B4" s="1">
         <f>IF(B12="Input Data",COUNTIFS($A$15:$A$42,"*$*",B15:B42,""),COUNTIFS($A$13:$A$14,"*$*",B13:B14,""))</f>
@@ -17642,19 +17680,19 @@
     </row>
     <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>4097</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>4098</v>
-      </c>
       <c r="C12" s="45" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>4098</v>
+        <v>4097</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -17671,16 +17709,16 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>4099</v>
+        <v>4098</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -17691,7 +17729,7 @@
     </row>
     <row customFormat="1" r="15" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>4127</v>
+        <v>4126</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -17702,7 +17740,7 @@
     </row>
     <row customFormat="1" r="16" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>4100</v>
+        <v>4099</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -17713,7 +17751,7 @@
     </row>
     <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -17724,7 +17762,7 @@
     </row>
     <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -17758,7 +17796,7 @@
     </row>
     <row customFormat="1" r="20" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -17769,7 +17807,7 @@
     </row>
     <row customFormat="1" r="21" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>4104</v>
+        <v>4103</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -17780,7 +17818,7 @@
     </row>
     <row customFormat="1" r="22" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>4105</v>
+        <v>4104</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -17791,7 +17829,7 @@
     </row>
     <row customFormat="1" r="23" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -17802,7 +17840,7 @@
     </row>
     <row customFormat="1" r="24" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -17813,7 +17851,7 @@
     </row>
     <row customFormat="1" r="25" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -18008,8 +18046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18024,10 +18062,10 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>4068</v>
+        <v>4229</v>
       </c>
       <c r="C1" t="s">
-        <v>4068</v>
+        <v>3289</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3289</v>
@@ -18038,17 +18076,29 @@
     </row>
     <row customFormat="1" r="2" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4129</v>
+        <v>4127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4227</v>
       </c>
     </row>
     <row customFormat="1" r="3" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4160</v>
+        <v>4157</v>
       </c>
       <c r="B4" s="1">
         <f>IF(LEN(B12) &gt;0,COUNTIFS($A$12:$A$21,"*$*",B12:B21,""),0)+IF(LEN(B24)&gt;0,COUNTIFS($A$23:$A$30,"*$*",B23:B30,""),0)</f>
@@ -18066,15 +18116,11 @@
     <row customFormat="1" r="9" s="1" spans="1:11" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4215</v>
+        <v>4212</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>'1.CustomerDetail'!B12</f>
-        <v>BLI GUNG</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>'1.CustomerDetail'!B12</f>
-        <v>BLI GUNG</v>
+        <v>ANYA</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -18094,7 +18140,7 @@
     </row>
     <row customFormat="1" r="12" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>4184</v>
+        <v>4181</v>
       </c>
       <c r="B12" s="11">
         <v>500000000</v>
@@ -18185,7 +18231,7 @@
     </row>
     <row customFormat="1" r="17" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>4185</v>
+        <v>4182</v>
       </c>
       <c r="B17" s="36">
         <v>44750</v>
@@ -18208,7 +18254,7 @@
     </row>
     <row customFormat="1" r="18" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="B18" s="38">
         <v>3000000</v>
@@ -18231,7 +18277,7 @@
     </row>
     <row customFormat="1" r="19" s="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>4091</v>
+        <v>4090</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>6</v>
@@ -18377,16 +18423,16 @@
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>4095</v>
+        <v>4094</v>
       </c>
     </row>
     <row customFormat="1" r="27" s="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -18394,16 +18440,16 @@
         <v>51</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>4096</v>
+        <v>4095</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -18465,50 +18511,50 @@
     </row>
     <row customFormat="1" r="31" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>4223</v>
+        <v>4218</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4227</v>
+        <v>4222</v>
       </c>
     </row>
     <row customFormat="1" r="32" s="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>4224</v>
+        <v>4219</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4228</v>
+        <v>4223</v>
       </c>
     </row>
     <row customFormat="1" r="33" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>4229</v>
+        <v>4224</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>4220</v>
+        <v>4215</v>
       </c>
     </row>
     <row customFormat="1" r="34" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>4225</v>
+        <v>4220</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4220</v>
+        <v>4215</v>
       </c>
     </row>
     <row customFormat="1" r="35" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>4230</v>
+        <v>4225</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4220</v>
+        <v>4215</v>
       </c>
     </row>
     <row customFormat="1" r="36" s="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>4226</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4231</v>
       </c>
     </row>
   </sheetData>
@@ -18579,7 +18625,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>4068</v>
+        <v>4229</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3289</v>
@@ -18593,17 +18639,29 @@
     </row>
     <row customFormat="1" r="2" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4129</v>
+        <v>4127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4227</v>
       </c>
     </row>
     <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4160</v>
+        <v>4157</v>
       </c>
       <c r="B4" s="1">
         <f>IF(B12="Yes",COUNTIFS($A$13:$A$16,"*$*",B13:B16,""),0)</f>
@@ -18621,7 +18679,7 @@
     </row>
     <row customFormat="1" r="12" s="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
-        <v>4218</v>
+        <v>4213</v>
       </c>
       <c r="B12" s="56" t="s">
         <v>6</v>
@@ -18629,10 +18687,10 @@
     </row>
     <row customFormat="1" r="13" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>4186</v>
+        <v>4183</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4219</v>
+        <v>4214</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -18640,15 +18698,15 @@
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4220</v>
+        <v>4215</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>4187</v>
+        <v>4184</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>4221</v>
+        <v>4216</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -18656,10 +18714,10 @@
     </row>
     <row customFormat="1" r="16" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>4188</v>
+        <v>4185</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4222</v>
+        <v>4217</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -18698,8 +18756,8 @@
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4128</v>
+      <c r="B1" t="s">
+        <v>4230</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3289</v>
@@ -18713,17 +18771,29 @@
     </row>
     <row customFormat="1" r="2" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4129</v>
+        <v>4127</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4227</v>
       </c>
     </row>
     <row customFormat="1" r="3" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4160</v>
+        <v>4157</v>
       </c>
       <c r="B4" s="1">
         <f>COUNTIFS($A$12:$A$42,"*$*",B12:B42,"")</f>
@@ -18747,7 +18817,7 @@
     </row>
     <row customFormat="1" r="12" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>4189</v>
+        <v>4186</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>VLOOKUP('7.OtherAttribute'!B13,Master!$M:$N,2,FALSE)</f>
@@ -18768,7 +18838,7 @@
     </row>
     <row customFormat="1" r="13" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>4190</v>
+        <v>4187</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>687</v>
@@ -18785,7 +18855,7 @@
     </row>
     <row customFormat="1" r="14" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>4191</v>
+        <v>4188</v>
       </c>
       <c r="B14" s="9" t="str">
         <f>VLOOKUP(B15,Master!$P:$Q,2,FALSE)</f>
@@ -18806,7 +18876,7 @@
     </row>
     <row customFormat="1" r="15" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>4192</v>
+        <v>4189</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>1235</v>
@@ -18823,7 +18893,7 @@
     </row>
     <row customFormat="1" r="16" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>4193</v>
+        <v>4190</v>
       </c>
       <c r="B16" s="9" t="str">
         <f>VLOOKUP(B17,Master!$S:$T,2,FALSE)</f>
@@ -18844,7 +18914,7 @@
     </row>
     <row customFormat="1" ht="135" r="17" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>4194</v>
+        <v>4191</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>1240</v>
@@ -18861,7 +18931,7 @@
     </row>
     <row customFormat="1" r="18" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>4195</v>
+        <v>4192</v>
       </c>
       <c r="B18" s="9" t="str">
         <f>VLOOKUP(B19,Master!$V:$W,2,FALSE)</f>
@@ -18882,7 +18952,7 @@
     </row>
     <row customFormat="1" ht="30" r="19" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>4196</v>
+        <v>4193</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>1407</v>
@@ -18925,7 +18995,7 @@
     </row>
     <row customFormat="1" r="22" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>4197</v>
+        <v>4194</v>
       </c>
       <c r="B22" s="10" t="str">
         <f>VLOOKUP(B23,Master!$Y:$Z,2,FALSE)</f>
@@ -18946,7 +19016,7 @@
     </row>
     <row customFormat="1" ht="30" r="23" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>4198</v>
+        <v>4195</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>2738</v>
@@ -18997,7 +19067,7 @@
     </row>
     <row customFormat="1" r="26" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>4199</v>
+        <v>4196</v>
       </c>
       <c r="B26" s="10" t="str">
         <f>VLOOKUP(B27,Master!$AB:$AC,2,FALSE)</f>
@@ -19018,7 +19088,7 @@
     </row>
     <row customFormat="1" ht="45" r="27" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>4200</v>
+        <v>4197</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>2969</v>
@@ -19035,7 +19105,7 @@
     </row>
     <row customFormat="1" r="28" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>4201</v>
+        <v>4198</v>
       </c>
       <c r="B28" s="10" t="str">
         <f>VLOOKUP(B29,Master!$AE:$AF,2,FALSE)</f>
@@ -19056,7 +19126,7 @@
     </row>
     <row customFormat="1" r="29" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>4202</v>
+        <v>4199</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>1610</v>
@@ -19073,7 +19143,7 @@
     </row>
     <row customFormat="1" r="30" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>4203</v>
+        <v>4200</v>
       </c>
       <c r="B30" s="10" t="str">
         <f>VLOOKUP(B31,Master!$AH:$AI,2,FALSE)</f>
@@ -19094,7 +19164,7 @@
     </row>
     <row customFormat="1" ht="30" r="31" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>4204</v>
+        <v>4201</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>2971</v>
@@ -19111,7 +19181,7 @@
     </row>
     <row customFormat="1" ht="45" r="32" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>4205</v>
+        <v>4202</v>
       </c>
       <c r="B32" s="10" t="str">
         <f>VLOOKUP(B33,Master!$AK:$AL,2,FALSE)</f>
@@ -19132,7 +19202,7 @@
     </row>
     <row customFormat="1" ht="30" r="33" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>4206</v>
+        <v>4203</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>2981</v>
@@ -19149,7 +19219,7 @@
     </row>
     <row customFormat="1" r="34" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>4207</v>
+        <v>4204</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>4067</v>
@@ -19166,7 +19236,7 @@
     </row>
     <row customFormat="1" r="35" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>4208</v>
+        <v>4205</v>
       </c>
       <c r="B35" s="10" t="e">
         <f>VLOOKUP(B36,Master!$AN:$AO,2,FALSE)</f>
@@ -19196,7 +19266,7 @@
     </row>
     <row customFormat="1" r="37" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>4209</v>
+        <v>4206</v>
       </c>
       <c r="B37" s="40">
         <v>44391</v>
@@ -19213,7 +19283,7 @@
     </row>
     <row customFormat="1" r="38" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>4210</v>
+        <v>4207</v>
       </c>
       <c r="B38" s="10" t="str">
         <f>VLOOKUP(B39,Master!$AQ$1:$AR$2,2,FALSE)</f>
@@ -19234,7 +19304,7 @@
     </row>
     <row customFormat="1" r="39" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>4211</v>
+        <v>4208</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>2991</v>
@@ -19251,7 +19321,7 @@
     </row>
     <row customFormat="1" r="40" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>4212</v>
+        <v>4209</v>
       </c>
       <c r="B40" s="40">
         <v>44764</v>
@@ -19268,7 +19338,7 @@
     </row>
     <row customFormat="1" r="41" s="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>4213</v>
+        <v>4210</v>
       </c>
       <c r="B41" s="10" t="str">
         <f>VLOOKUP(B42,Master!$AT:$AU,2,FALSE)</f>
@@ -19518,10 +19588,10 @@
         <v>4060</v>
       </c>
       <c r="BG1" s="29" t="s">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="BI1" s="29" t="s">
-        <v>4124</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
@@ -19632,10 +19702,10 @@
         <v>4061</v>
       </c>
       <c r="BG2" s="30" t="s">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="BI2" s="30" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
@@ -19742,10 +19812,10 @@
         <v>4059</v>
       </c>
       <c r="BG3" s="30" t="s">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="BI3" s="30" t="s">
-        <v>4126</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
@@ -19846,7 +19916,7 @@
         <v>40</v>
       </c>
       <c r="BG4" s="30" t="s">
-        <v>4112</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
@@ -19947,7 +20017,7 @@
         <v>4062</v>
       </c>
       <c r="BG5" s="30" t="s">
-        <v>4113</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
@@ -20048,7 +20118,7 @@
         <v>3566</v>
       </c>
       <c r="BG6" s="30" t="s">
-        <v>4114</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
@@ -20143,7 +20213,7 @@
         <v>12</v>
       </c>
       <c r="BG7" s="30" t="s">
-        <v>4115</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
@@ -20238,7 +20308,7 @@
         <v>4063</v>
       </c>
       <c r="BG8" s="30" t="s">
-        <v>4116</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
@@ -20327,7 +20397,7 @@
         <v>4064</v>
       </c>
       <c r="BG9" s="30" t="s">
-        <v>4117</v>
+        <v>4116</v>
       </c>
     </row>
     <row ht="30" r="10" spans="1:61" x14ac:dyDescent="0.25">
@@ -20409,7 +20479,7 @@
         <v>4065</v>
       </c>
       <c r="BG10" s="30" t="s">
-        <v>4118</v>
+        <v>4117</v>
       </c>
     </row>
     <row ht="30" r="11" spans="1:61" x14ac:dyDescent="0.25">
@@ -20480,7 +20550,7 @@
         <v>3595</v>
       </c>
       <c r="BG11" s="30" t="s">
-        <v>4119</v>
+        <v>4118</v>
       </c>
     </row>
     <row ht="30" r="12" spans="1:61" x14ac:dyDescent="0.25">
@@ -20551,7 +20621,7 @@
         <v>3597</v>
       </c>
       <c r="BG12" s="30" t="s">
-        <v>4120</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
@@ -20622,7 +20692,7 @@
         <v>3599</v>
       </c>
       <c r="BG13" s="30" t="s">
-        <v>4121</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
@@ -20693,7 +20763,7 @@
         <v>3601</v>
       </c>
       <c r="BG14" s="30" t="s">
-        <v>4122</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
@@ -20755,7 +20825,7 @@
         <v>3603</v>
       </c>
       <c r="BG15" s="30" t="s">
-        <v>4123</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
